--- a/Seguimiento Fundación Reconocer (1) (1).xlsx
+++ b/Seguimiento Fundación Reconocer (1) (1).xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="724">
   <si>
     <t>Gestión Administrativa (Información desde Fundación)</t>
   </si>
@@ -2214,6 +2214,9 @@
   </si>
   <si>
     <t>Certificado Alta (Link)</t>
+  </si>
+  <si>
+    <t>28/06/1956</t>
   </si>
 </sst>
 </file>
@@ -2471,7 +2474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2630,11 +2633,12 @@
     <xf numFmtId="49" fontId="10" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2873,10 +2877,10 @@
   <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2905,14 +2909,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="26.25" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3175,7 +3179,7 @@
       <c r="D3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="64">
+      <c r="E3" s="65">
         <v>18256</v>
       </c>
       <c r="F3" s="17">
@@ -3270,7 +3274,7 @@
       <c r="D4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="65">
         <v>19972</v>
       </c>
       <c r="F4" s="17">
@@ -3361,7 +3365,7 @@
       <c r="D5" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="65">
         <v>21251</v>
       </c>
       <c r="F5" s="17">
@@ -3452,8 +3456,8 @@
       <c r="D6" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="16">
-        <v>20634</v>
+      <c r="E6" s="62" t="s">
+        <v>723</v>
       </c>
       <c r="F6" s="17">
         <f t="shared" ca="1" si="0"/>
@@ -3543,12 +3547,10 @@
       <c r="D7" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="16">
-        <v>15765</v>
-      </c>
+      <c r="E7" s="16"/>
       <c r="F7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>45</v>

--- a/Seguimiento Fundación Reconocer (1) (1).xlsx
+++ b/Seguimiento Fundación Reconocer (1) (1).xlsx
@@ -13,7 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="CD Manuel Montt" sheetId="1" r:id="rId1"/>
-    <sheet name="Prestaciones Arancel Convenio" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="4" r:id="rId3"/>
+    <sheet name="Prestaciones Arancel Convenio" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="763">
   <si>
     <t>Gestión Administrativa (Información desde Fundación)</t>
   </si>
@@ -205,9 +207,6 @@
     <t>Braulio Enrique Curimil Chihuailaf</t>
   </si>
   <si>
-    <t>7284537-4</t>
-  </si>
-  <si>
     <t>Carlos Humberto Perez Vargas</t>
   </si>
   <si>
@@ -235,25 +234,10 @@
     <t>Rudencindo Jimenez</t>
   </si>
   <si>
-    <t>6565078-9</t>
-  </si>
-  <si>
     <t>Victor Vasquez Dias</t>
   </si>
   <si>
     <t>7778320-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celso Del Carmen Aracena Valencia </t>
-  </si>
-  <si>
-    <t>5384269-0</t>
-  </si>
-  <si>
-    <t>Luis Schonffeldt Perez</t>
-  </si>
-  <si>
-    <t>6612440-1</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -2217,15 +2201,171 @@
   </si>
   <si>
     <t>28/06/1956</t>
+  </si>
+  <si>
+    <t>n°_paciente',</t>
+  </si>
+  <si>
+    <t>'caso',</t>
+  </si>
+  <si>
+    <t>'nombre_paciente',</t>
+  </si>
+  <si>
+    <t>'rut',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'fecha_de_nacimiento',
+</t>
+  </si>
+  <si>
+    <t>'edad',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'plan_de_tratamiento_ingreso_(link)',
+</t>
+  </si>
+  <si>
+    <t>'link_plan_de_tratamiento_(pdt)_(dis)',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'precio_pdt_ingreso',
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'aprobación_fundación_(pdt_diagnóstico)',
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'órden_de_atención_entregada_al_centro.1',
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'n°_orden_de_atención_(folio)_pdf',
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'disponibilidad_paciente_(diagnóstico)_opción_1',
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'disponibilidad_paciente_(diagnóstico)_opción_2',
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'profesional_que_realiza_diagnóstico',
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'cita_(fecha_inicio,_diagnóstico_+_rx+_higiene)',
+</t>
+  </si>
+  <si>
+    <t>'asistencia_(diagnóstico)',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'pdt_tratamiento',
+</t>
+  </si>
+  <si>
+    <t>'link_pdf_pdt_tratamiento',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'precio_pdt_tratamiento',
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'aprobación_fundación_(pdt_tratamiento)',
+</t>
+  </si>
+  <si>
+    <t>'órden_de_atención_entregada_al_centro',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'profesional_tratante',
+</t>
+  </si>
+  <si>
+    <t>'fecha_1ra_cita',</t>
+  </si>
+  <si>
+    <t>'asistencia_1ra_cita',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'fecha_2da_cita',
+</t>
+  </si>
+  <si>
+    <t>'asistencia_2da_cita',</t>
+  </si>
+  <si>
+    <t>'fecha_3ra_cita',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'asistencia_3ra_cita',
+</t>
+  </si>
+  <si>
+    <t>'fecha_4ta_cita',</t>
+  </si>
+  <si>
+    <t>'asistencia_4ta_cita',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'fecha_5ta_cita',
+</t>
+  </si>
+  <si>
+    <t>'asistencia_5ta_cita',</t>
+  </si>
+  <si>
+    <t>'fecha_6ta_cita',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'asistencia_6ta_cita',
+</t>
+  </si>
+  <si>
+    <t>'fecha_7ma_cita',</t>
+  </si>
+  <si>
+    <t>'asistencia_7ma_cita',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'fecha_8va_cita',
+</t>
+  </si>
+  <si>
+    <t>'asistencia_8va_cita',</t>
+  </si>
+  <si>
+    <t>'fecha_9na_cita',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'asistencia_9na_cita',
+</t>
+  </si>
+  <si>
+    <t>'asistencia_(fecha_término)',</t>
+  </si>
+  <si>
+    <t>'certificado_alta_(link)',</t>
+  </si>
+  <si>
+    <t>'observaciones'</t>
+  </si>
+  <si>
+    <t>Desdenta  do</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$$]#,##0"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="170" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -2474,7 +2614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2634,11 +2774,31 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2877,17 +3037,17 @@
   <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" customWidth="1"/>
     <col min="9" max="9" width="17.140625" customWidth="1"/>
@@ -2909,14 +3069,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="26.25" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3046,13 +3206,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>9</v>
@@ -3064,7 +3224,7 @@
         <v>11</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>12</v>
@@ -3094,10 +3254,10 @@
         <v>20</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="W2" s="12" t="s">
         <v>21</v>
@@ -3160,7 +3320,7 @@
         <v>40</v>
       </c>
       <c r="AQ2" s="9" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="AR2" s="9" t="s">
         <v>41</v>
@@ -3170,8 +3330,8 @@
       <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>42</v>
+      <c r="B3" s="14">
+        <v>1</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>43</v>
@@ -3179,7 +3339,7 @@
       <c r="D3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="65">
+      <c r="E3" s="64">
         <v>18256</v>
       </c>
       <c r="F3" s="17">
@@ -3265,16 +3425,14 @@
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="71" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="65">
+      <c r="D4" s="15"/>
+      <c r="E4" s="64">
         <v>19972</v>
       </c>
       <c r="F4" s="17">
@@ -3356,21 +3514,21 @@
       <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>42</v>
+      <c r="B5" s="72" t="s">
+        <v>762</v>
       </c>
       <c r="C5" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="65">
-        <v>21251</v>
+      <c r="E5" s="64">
+        <v>111111</v>
       </c>
       <c r="F5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>-179</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>45</v>
@@ -3444,20 +3602,18 @@
       <c r="AR5" s="20"/>
     </row>
     <row r="6" spans="1:44" ht="12.75">
-      <c r="A6" s="13">
-        <v>4</v>
-      </c>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="70" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>57</v>
-      </c>
       <c r="E6" s="62" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="F6" s="17">
         <f t="shared" ca="1" si="0"/>
@@ -3542,10 +3698,10 @@
         <v>42</v>
       </c>
       <c r="C7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>58</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>59</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="17">
@@ -3627,21 +3783,21 @@
       <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>42</v>
+      <c r="B8" s="14">
+        <v>2</v>
       </c>
       <c r="C8" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>61</v>
-      </c>
       <c r="E8" s="16">
-        <v>19199</v>
-      </c>
-      <c r="F8" s="17">
+        <v>5454456</v>
+      </c>
+      <c r="F8" s="17" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>#NUM!</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>45</v>
@@ -3718,15 +3874,11 @@
       <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>42</v>
-      </c>
+      <c r="B9" s="70"/>
       <c r="C9" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>63</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D9" s="15"/>
       <c r="E9" s="16">
         <v>19459</v>
       </c>
@@ -3809,14 +3961,12 @@
       <c r="A10" s="13">
         <v>8</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>42</v>
-      </c>
+      <c r="B10" s="69"/>
       <c r="C10" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E10" s="16">
         <v>21104</v>
@@ -3903,11 +4053,9 @@
       <c r="B11" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>67</v>
+      <c r="C11" s="15"/>
+      <c r="D11" s="73">
+        <v>53842690</v>
       </c>
       <c r="E11" s="16">
         <v>16238</v>
@@ -3992,13 +4140,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>716</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>69</v>
+        <v>710</v>
+      </c>
+      <c r="C12" s="15">
+        <v>123</v>
+      </c>
+      <c r="D12" s="15">
+        <v>66124401</v>
       </c>
       <c r="E12" s="16">
         <v>18966</v>
@@ -4081,10 +4229,10 @@
     <row r="13" spans="1:44" ht="38.25" customHeight="1">
       <c r="A13" s="28"/>
       <c r="B13" s="29" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
@@ -4160,11 +4308,398 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR1"/>
+  <sheetViews>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection sqref="A1:AR1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:44" ht="409.5">
+      <c r="A1" s="67" t="s">
+        <v>718</v>
+      </c>
+      <c r="B1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D1" t="s">
+        <v>721</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>722</v>
+      </c>
+      <c r="F1" t="s">
+        <v>723</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>724</v>
+      </c>
+      <c r="H1" t="s">
+        <v>725</v>
+      </c>
+      <c r="I1" s="68" t="s">
+        <v>726</v>
+      </c>
+      <c r="J1" s="68" t="s">
+        <v>727</v>
+      </c>
+      <c r="K1" s="68" t="s">
+        <v>728</v>
+      </c>
+      <c r="L1" s="68" t="s">
+        <v>729</v>
+      </c>
+      <c r="M1" s="68" t="s">
+        <v>730</v>
+      </c>
+      <c r="N1" s="68" t="s">
+        <v>731</v>
+      </c>
+      <c r="O1" s="68" t="s">
+        <v>732</v>
+      </c>
+      <c r="P1" s="68" t="s">
+        <v>733</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>734</v>
+      </c>
+      <c r="R1" s="68" t="s">
+        <v>735</v>
+      </c>
+      <c r="S1" t="s">
+        <v>736</v>
+      </c>
+      <c r="T1" s="68" t="s">
+        <v>737</v>
+      </c>
+      <c r="U1" s="68" t="s">
+        <v>738</v>
+      </c>
+      <c r="V1" t="s">
+        <v>739</v>
+      </c>
+      <c r="W1" s="68" t="s">
+        <v>740</v>
+      </c>
+      <c r="X1" t="s">
+        <v>741</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>742</v>
+      </c>
+      <c r="Z1" s="68" t="s">
+        <v>743</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>744</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>745</v>
+      </c>
+      <c r="AC1" s="68" t="s">
+        <v>746</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>747</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>748</v>
+      </c>
+      <c r="AF1" s="68" t="s">
+        <v>749</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>750</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>751</v>
+      </c>
+      <c r="AI1" s="68" t="s">
+        <v>752</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>753</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>754</v>
+      </c>
+      <c r="AL1" s="68" t="s">
+        <v>755</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>756</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>757</v>
+      </c>
+      <c r="AO1" s="68" t="s">
+        <v>758</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>759</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>760</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="25.5">
+      <c r="A1" s="67" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="63" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="63" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="63" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="38.25">
+      <c r="A5" s="68" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="63" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="51">
+      <c r="A7" s="68" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="63" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="38.25">
+      <c r="A9" s="68" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="63.75">
+      <c r="A10" s="68" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="63.75">
+      <c r="A11" s="68" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="51">
+      <c r="A12" s="68" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="63.75">
+      <c r="A13" s="68" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="63.75">
+      <c r="A14" s="68" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="51">
+      <c r="A15" s="68" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="63.75">
+      <c r="A16" s="68" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="63" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="38.25">
+      <c r="A18" s="68" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="63" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="38.25">
+      <c r="A20" s="68" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="63.75">
+      <c r="A21" s="68" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="63" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="38.25">
+      <c r="A23" s="68" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="63" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="63" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="38.25">
+      <c r="A26" s="68" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="63" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="63" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="38.25">
+      <c r="A29" s="68" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="63" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="63" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="38.25">
+      <c r="A32" s="68" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="63" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="63" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="38.25">
+      <c r="A35" s="68" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="63" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="63" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="38.25">
+      <c r="A38" s="68" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="63" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="63" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="38.25">
+      <c r="A41" s="68" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="63" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="63" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="63" t="s">
+        <v>761</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4183,16 +4718,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="37.5" customHeight="1">
       <c r="A1" s="39" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75">
@@ -4200,10 +4735,10 @@
         <v>5001001</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D2" s="44"/>
     </row>
@@ -4212,10 +4747,10 @@
         <v>5001003</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D3" s="44"/>
     </row>
@@ -4224,10 +4759,10 @@
         <v>5001004</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D4" s="44"/>
     </row>
@@ -4236,10 +4771,10 @@
         <v>5001005</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D5" s="44"/>
     </row>
@@ -4248,10 +4783,10 @@
         <v>5001006</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D6" s="44"/>
     </row>
@@ -4260,10 +4795,10 @@
         <v>5001007</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D7" s="44"/>
     </row>
@@ -4272,10 +4807,10 @@
         <v>5001011</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D8" s="44"/>
     </row>
@@ -4284,10 +4819,10 @@
         <v>5001015</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D9" s="44"/>
     </row>
@@ -4296,10 +4831,10 @@
         <v>5001017</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D10" s="44"/>
     </row>
@@ -4308,10 +4843,10 @@
         <v>5001018</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D11" s="44"/>
     </row>
@@ -4320,10 +4855,10 @@
         <v>5001019</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D12" s="44"/>
     </row>
@@ -4332,10 +4867,10 @@
         <v>5001020</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D13" s="44"/>
     </row>
@@ -4344,10 +4879,10 @@
         <v>5001021</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D14" s="44"/>
     </row>
@@ -4356,10 +4891,10 @@
         <v>5001022</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D15" s="44"/>
     </row>
@@ -4368,10 +4903,10 @@
         <v>5001023</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D16" s="44"/>
     </row>
@@ -4380,10 +4915,10 @@
         <v>5001027</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D17" s="44"/>
     </row>
@@ -4392,10 +4927,10 @@
         <v>5001030</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D18" s="44"/>
     </row>
@@ -4404,10 +4939,10 @@
         <v>5001032</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D19" s="44"/>
     </row>
@@ -4416,10 +4951,10 @@
         <v>5001033</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D20" s="44"/>
     </row>
@@ -4428,10 +4963,10 @@
         <v>5001034</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D21" s="44"/>
     </row>
@@ -4440,10 +4975,10 @@
         <v>5001036</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D22" s="44"/>
     </row>
@@ -4452,10 +4987,10 @@
         <v>5001037</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D23" s="44"/>
     </row>
@@ -4464,10 +4999,10 @@
         <v>5001038</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D24" s="44"/>
     </row>
@@ -4476,10 +5011,10 @@
         <v>5001039</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D25" s="44"/>
     </row>
@@ -4488,10 +5023,10 @@
         <v>5001040</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D26" s="44"/>
     </row>
@@ -4500,10 +5035,10 @@
         <v>5001041</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D27" s="44"/>
     </row>
@@ -4512,10 +5047,10 @@
         <v>5001042</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D28" s="44"/>
     </row>
@@ -4524,10 +5059,10 @@
         <v>5001043</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D29" s="44"/>
     </row>
@@ -4536,10 +5071,10 @@
         <v>5002001</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D30" s="44"/>
     </row>
@@ -4548,10 +5083,10 @@
         <v>5002002</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D31" s="44"/>
     </row>
@@ -4560,10 +5095,10 @@
         <v>5002003</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D32" s="44"/>
     </row>
@@ -4572,10 +5107,10 @@
         <v>5002004</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D33" s="44"/>
     </row>
@@ -4584,10 +5119,10 @@
         <v>5002010</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D34" s="44"/>
     </row>
@@ -4596,10 +5131,10 @@
         <v>5002018</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D35" s="44"/>
     </row>
@@ -4608,10 +5143,10 @@
         <v>5002019</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D36" s="44"/>
     </row>
@@ -4620,10 +5155,10 @@
         <v>5002020</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D37" s="44"/>
     </row>
@@ -4632,10 +5167,10 @@
         <v>5002024</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D38" s="44"/>
     </row>
@@ -4644,10 +5179,10 @@
         <v>5002029</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D39" s="44"/>
     </row>
@@ -4656,10 +5191,10 @@
         <v>5002032</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D40" s="44"/>
     </row>
@@ -4668,10 +5203,10 @@
         <v>5002033</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D41" s="44"/>
     </row>
@@ -4680,10 +5215,10 @@
         <v>5002037</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D42" s="44"/>
     </row>
@@ -4692,10 +5227,10 @@
         <v>5002038</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D43" s="44"/>
     </row>
@@ -4704,10 +5239,10 @@
         <v>5002039</v>
       </c>
       <c r="B44" s="42" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D44" s="44"/>
     </row>
@@ -4716,10 +5251,10 @@
         <v>5002040</v>
       </c>
       <c r="B45" s="42" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C45" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D45" s="44"/>
     </row>
@@ -4728,10 +5263,10 @@
         <v>5002042</v>
       </c>
       <c r="B46" s="42" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D46" s="44"/>
     </row>
@@ -4740,10 +5275,10 @@
         <v>5002043</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C47" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D47" s="44"/>
     </row>
@@ -4752,10 +5287,10 @@
         <v>5002044</v>
       </c>
       <c r="B48" s="42" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C48" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D48" s="44"/>
     </row>
@@ -4764,10 +5299,10 @@
         <v>5002046</v>
       </c>
       <c r="B49" s="42" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D49" s="44"/>
     </row>
@@ -4776,10 +5311,10 @@
         <v>5002047</v>
       </c>
       <c r="B50" s="42" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D50" s="44"/>
     </row>
@@ -4788,10 +5323,10 @@
         <v>5002048</v>
       </c>
       <c r="B51" s="42" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D51" s="44"/>
     </row>
@@ -4800,10 +5335,10 @@
         <v>5002049</v>
       </c>
       <c r="B52" s="42" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C52" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D52" s="44"/>
     </row>
@@ -4812,10 +5347,10 @@
         <v>5002051</v>
       </c>
       <c r="B53" s="42" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C53" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D53" s="44"/>
     </row>
@@ -4824,10 +5359,10 @@
         <v>5002052</v>
       </c>
       <c r="B54" s="42" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C54" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D54" s="44"/>
     </row>
@@ -4836,10 +5371,10 @@
         <v>5002053</v>
       </c>
       <c r="B55" s="42" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C55" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D55" s="44"/>
     </row>
@@ -4848,10 +5383,10 @@
         <v>5002054</v>
       </c>
       <c r="B56" s="42" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C56" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D56" s="44"/>
     </row>
@@ -4860,10 +5395,10 @@
         <v>5002055</v>
       </c>
       <c r="B57" s="42" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D57" s="44"/>
     </row>
@@ -4872,10 +5407,10 @@
         <v>5002056</v>
       </c>
       <c r="B58" s="42" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C58" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D58" s="44"/>
     </row>
@@ -4884,10 +5419,10 @@
         <v>5002057</v>
       </c>
       <c r="B59" s="42" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D59" s="44"/>
     </row>
@@ -4896,10 +5431,10 @@
         <v>5002058</v>
       </c>
       <c r="B60" s="42" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D60" s="44"/>
     </row>
@@ -4908,10 +5443,10 @@
         <v>5002059</v>
       </c>
       <c r="B61" s="42" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D61" s="44"/>
     </row>
@@ -4920,10 +5455,10 @@
         <v>5002060</v>
       </c>
       <c r="B62" s="42" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C62" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D62" s="44"/>
     </row>
@@ -4932,10 +5467,10 @@
         <v>5002061</v>
       </c>
       <c r="B63" s="42" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C63" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D63" s="44"/>
     </row>
@@ -4944,10 +5479,10 @@
         <v>5002062</v>
       </c>
       <c r="B64" s="42" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C64" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D64" s="44"/>
     </row>
@@ -4956,10 +5491,10 @@
         <v>5002063</v>
       </c>
       <c r="B65" s="42" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C65" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D65" s="44"/>
     </row>
@@ -4968,10 +5503,10 @@
         <v>5002064</v>
       </c>
       <c r="B66" s="42" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D66" s="44"/>
     </row>
@@ -4980,10 +5515,10 @@
         <v>5002065</v>
       </c>
       <c r="B67" s="42" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C67" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D67" s="44"/>
     </row>
@@ -4992,10 +5527,10 @@
         <v>5002066</v>
       </c>
       <c r="B68" s="42" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C68" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D68" s="44"/>
     </row>
@@ -5004,10 +5539,10 @@
         <v>5002067</v>
       </c>
       <c r="B69" s="42" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C69" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D69" s="44"/>
     </row>
@@ -5016,10 +5551,10 @@
         <v>5002068</v>
       </c>
       <c r="B70" s="42" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D70" s="44"/>
     </row>
@@ -5028,10 +5563,10 @@
         <v>5002069</v>
       </c>
       <c r="B71" s="42" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C71" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D71" s="44"/>
     </row>
@@ -5040,10 +5575,10 @@
         <v>5002070</v>
       </c>
       <c r="B72" s="42" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C72" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D72" s="44"/>
     </row>
@@ -5052,10 +5587,10 @@
         <v>5002071</v>
       </c>
       <c r="B73" s="42" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C73" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D73" s="44"/>
     </row>
@@ -5064,10 +5599,10 @@
         <v>5002072</v>
       </c>
       <c r="B74" s="42" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D74" s="44"/>
     </row>
@@ -5076,10 +5611,10 @@
         <v>5002073</v>
       </c>
       <c r="B75" s="42" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C75" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D75" s="44"/>
     </row>
@@ -5088,10 +5623,10 @@
         <v>5002074</v>
       </c>
       <c r="B76" s="42" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C76" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D76" s="44"/>
     </row>
@@ -5100,10 +5635,10 @@
         <v>5002075</v>
       </c>
       <c r="B77" s="42" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D77" s="44"/>
     </row>
@@ -5112,10 +5647,10 @@
         <v>5002076</v>
       </c>
       <c r="B78" s="42" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D78" s="44"/>
     </row>
@@ -5124,10 +5659,10 @@
         <v>5002077</v>
       </c>
       <c r="B79" s="42" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C79" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D79" s="44"/>
     </row>
@@ -5136,10 +5671,10 @@
         <v>5002078</v>
       </c>
       <c r="B80" s="42" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C80" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D80" s="44"/>
     </row>
@@ -5148,10 +5683,10 @@
         <v>5002079</v>
       </c>
       <c r="B81" s="42" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C81" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D81" s="44"/>
     </row>
@@ -5160,10 +5695,10 @@
         <v>5002080</v>
       </c>
       <c r="B82" s="42" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D82" s="44"/>
     </row>
@@ -5172,10 +5707,10 @@
         <v>5002081</v>
       </c>
       <c r="B83" s="42" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C83" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D83" s="44"/>
     </row>
@@ -5184,10 +5719,10 @@
         <v>5002082</v>
       </c>
       <c r="B84" s="42" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C84" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D84" s="44"/>
     </row>
@@ -5196,10 +5731,10 @@
         <v>5002083</v>
       </c>
       <c r="B85" s="42" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C85" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D85" s="44"/>
     </row>
@@ -5208,10 +5743,10 @@
         <v>5002084</v>
       </c>
       <c r="B86" s="42" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D86" s="44"/>
     </row>
@@ -5220,10 +5755,10 @@
         <v>5002085</v>
       </c>
       <c r="B87" s="42" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C87" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D87" s="44"/>
     </row>
@@ -5232,10 +5767,10 @@
         <v>5002086</v>
       </c>
       <c r="B88" s="42" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C88" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D88" s="44"/>
     </row>
@@ -5244,10 +5779,10 @@
         <v>5002087</v>
       </c>
       <c r="B89" s="42" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C89" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D89" s="44"/>
     </row>
@@ -5256,10 +5791,10 @@
         <v>5002088</v>
       </c>
       <c r="B90" s="42" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D90" s="44"/>
     </row>
@@ -5268,10 +5803,10 @@
         <v>5002091</v>
       </c>
       <c r="B91" s="42" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C91" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D91" s="44"/>
     </row>
@@ -5280,10 +5815,10 @@
         <v>5002092</v>
       </c>
       <c r="B92" s="42" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C92" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D92" s="44"/>
     </row>
@@ -5292,10 +5827,10 @@
         <v>5002093</v>
       </c>
       <c r="B93" s="42" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C93" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D93" s="44"/>
     </row>
@@ -5304,10 +5839,10 @@
         <v>5003001</v>
       </c>
       <c r="B94" s="42" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D94" s="44"/>
     </row>
@@ -5316,10 +5851,10 @@
         <v>5003002</v>
       </c>
       <c r="B95" s="42" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C95" s="43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D95" s="44"/>
     </row>
@@ -5328,10 +5863,10 @@
         <v>5003006</v>
       </c>
       <c r="B96" s="42" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C96" s="43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D96" s="44"/>
     </row>
@@ -5340,10 +5875,10 @@
         <v>5003008</v>
       </c>
       <c r="B97" s="42" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C97" s="43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D97" s="44"/>
     </row>
@@ -5352,10 +5887,10 @@
         <v>5003010</v>
       </c>
       <c r="B98" s="42" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D98" s="44"/>
     </row>
@@ -5364,10 +5899,10 @@
         <v>5003012</v>
       </c>
       <c r="B99" s="42" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C99" s="43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D99" s="44"/>
     </row>
@@ -5376,10 +5911,10 @@
         <v>5003015</v>
       </c>
       <c r="B100" s="42" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C100" s="43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D100" s="44"/>
     </row>
@@ -5388,10 +5923,10 @@
         <v>5003016</v>
       </c>
       <c r="B101" s="42" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C101" s="43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D101" s="44"/>
     </row>
@@ -5400,10 +5935,10 @@
         <v>5003017</v>
       </c>
       <c r="B102" s="42" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C102" s="43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D102" s="44"/>
     </row>
@@ -5412,10 +5947,10 @@
         <v>5003018</v>
       </c>
       <c r="B103" s="42" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C103" s="43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D103" s="44"/>
     </row>
@@ -5424,10 +5959,10 @@
         <v>5003019</v>
       </c>
       <c r="B104" s="42" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C104" s="43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D104" s="44"/>
     </row>
@@ -5436,10 +5971,10 @@
         <v>5003020</v>
       </c>
       <c r="B105" s="42" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C105" s="43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D105" s="44"/>
     </row>
@@ -5448,10 +5983,10 @@
         <v>5003021</v>
       </c>
       <c r="B106" s="42" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C106" s="43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D106" s="44"/>
     </row>
@@ -5460,10 +5995,10 @@
         <v>5003022</v>
       </c>
       <c r="B107" s="42" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C107" s="43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D107" s="44"/>
     </row>
@@ -5472,10 +6007,10 @@
         <v>5003023</v>
       </c>
       <c r="B108" s="42" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C108" s="43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D108" s="44"/>
     </row>
@@ -5484,10 +6019,10 @@
         <v>5003030</v>
       </c>
       <c r="B109" s="42" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C109" s="43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D109" s="44"/>
     </row>
@@ -5496,10 +6031,10 @@
         <v>5003031</v>
       </c>
       <c r="B110" s="42" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C110" s="43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D110" s="44"/>
     </row>
@@ -5508,10 +6043,10 @@
         <v>5003034</v>
       </c>
       <c r="B111" s="42" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C111" s="43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D111" s="44"/>
     </row>
@@ -5520,10 +6055,10 @@
         <v>5003037</v>
       </c>
       <c r="B112" s="42" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C112" s="43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D112" s="44"/>
     </row>
@@ -5532,10 +6067,10 @@
         <v>5003038</v>
       </c>
       <c r="B113" s="42" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C113" s="43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D113" s="44"/>
     </row>
@@ -5544,10 +6079,10 @@
         <v>5003039</v>
       </c>
       <c r="B114" s="42" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C114" s="43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D114" s="44"/>
     </row>
@@ -5556,10 +6091,10 @@
         <v>5003040</v>
       </c>
       <c r="B115" s="42" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C115" s="43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D115" s="44"/>
     </row>
@@ -5568,10 +6103,10 @@
         <v>5003041</v>
       </c>
       <c r="B116" s="42" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C116" s="43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D116" s="44"/>
     </row>
@@ -5580,10 +6115,10 @@
         <v>5003042</v>
       </c>
       <c r="B117" s="42" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C117" s="43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D117" s="44"/>
     </row>
@@ -5592,10 +6127,10 @@
         <v>5003043</v>
       </c>
       <c r="B118" s="42" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C118" s="43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D118" s="44"/>
     </row>
@@ -5604,10 +6139,10 @@
         <v>5003044</v>
       </c>
       <c r="B119" s="42" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C119" s="43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D119" s="44"/>
     </row>
@@ -5616,10 +6151,10 @@
         <v>5003045</v>
       </c>
       <c r="B120" s="42" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C120" s="43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D120" s="44"/>
     </row>
@@ -5628,10 +6163,10 @@
         <v>5003046</v>
       </c>
       <c r="B121" s="42" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C121" s="43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D121" s="44"/>
     </row>
@@ -5640,10 +6175,10 @@
         <v>5003047</v>
       </c>
       <c r="B122" s="42" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C122" s="43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D122" s="44"/>
     </row>
@@ -5652,13 +6187,13 @@
         <v>5004009</v>
       </c>
       <c r="B123" s="46" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C123" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D123" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="12.75">
@@ -5666,13 +6201,13 @@
         <v>5004011</v>
       </c>
       <c r="B124" s="46" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C124" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D124" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="12.75">
@@ -5680,13 +6215,13 @@
         <v>5004018</v>
       </c>
       <c r="B125" s="46" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C125" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D125" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="12.75">
@@ -5694,13 +6229,13 @@
         <v>5004019</v>
       </c>
       <c r="B126" s="46" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C126" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D126" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="12.75">
@@ -5708,13 +6243,13 @@
         <v>5004020</v>
       </c>
       <c r="B127" s="46" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C127" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D127" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="12.75">
@@ -5722,13 +6257,13 @@
         <v>5004032</v>
       </c>
       <c r="B128" s="46" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C128" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D128" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="12.75">
@@ -5736,13 +6271,13 @@
         <v>5004033</v>
       </c>
       <c r="B129" s="46" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C129" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D129" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="12.75">
@@ -5750,13 +6285,13 @@
         <v>5004035</v>
       </c>
       <c r="B130" s="46" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C130" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D130" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="12.75">
@@ -5764,13 +6299,13 @@
         <v>5004047</v>
       </c>
       <c r="B131" s="46" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C131" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D131" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="12.75">
@@ -5778,13 +6313,13 @@
         <v>5004057</v>
       </c>
       <c r="B132" s="46" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C132" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D132" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="12.75">
@@ -5792,13 +6327,13 @@
         <v>5004059</v>
       </c>
       <c r="B133" s="46" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C133" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D133" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="12.75">
@@ -5806,13 +6341,13 @@
         <v>5004061</v>
       </c>
       <c r="B134" s="46" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C134" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D134" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="12.75">
@@ -5820,13 +6355,13 @@
         <v>5004068</v>
       </c>
       <c r="B135" s="46" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C135" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D135" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="12.75">
@@ -5834,13 +6369,13 @@
         <v>5004069</v>
       </c>
       <c r="B136" s="46" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C136" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D136" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="12.75">
@@ -5848,13 +6383,13 @@
         <v>5004070</v>
       </c>
       <c r="B137" s="46" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C137" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D137" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="12.75">
@@ -5862,13 +6397,13 @@
         <v>5004071</v>
       </c>
       <c r="B138" s="46" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C138" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D138" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="12.75">
@@ -5876,13 +6411,13 @@
         <v>5004074</v>
       </c>
       <c r="B139" s="46" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C139" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D139" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="12.75">
@@ -5890,13 +6425,13 @@
         <v>5004075</v>
       </c>
       <c r="B140" s="46" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C140" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D140" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="12.75">
@@ -5904,13 +6439,13 @@
         <v>5004077</v>
       </c>
       <c r="B141" s="46" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C141" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D141" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="12.75">
@@ -5918,13 +6453,13 @@
         <v>5004078</v>
       </c>
       <c r="B142" s="46" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C142" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D142" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="12.75">
@@ -5932,13 +6467,13 @@
         <v>5004083</v>
       </c>
       <c r="B143" s="46" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C143" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D143" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="12.75">
@@ -5946,13 +6481,13 @@
         <v>5004084</v>
       </c>
       <c r="B144" s="46" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C144" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D144" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="12.75">
@@ -5960,13 +6495,13 @@
         <v>5004085</v>
       </c>
       <c r="B145" s="46" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C145" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D145" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="12.75">
@@ -5974,13 +6509,13 @@
         <v>5004086</v>
       </c>
       <c r="B146" s="46" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C146" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D146" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="12.75">
@@ -5988,13 +6523,13 @@
         <v>5004087</v>
       </c>
       <c r="B147" s="46" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C147" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D147" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="12.75">
@@ -6002,13 +6537,13 @@
         <v>5004088</v>
       </c>
       <c r="B148" s="46" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C148" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D148" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="12.75">
@@ -6016,13 +6551,13 @@
         <v>5004089</v>
       </c>
       <c r="B149" s="46" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C149" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D149" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="12.75">
@@ -6030,13 +6565,13 @@
         <v>5004090</v>
       </c>
       <c r="B150" s="46" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C150" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D150" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="12.75">
@@ -6044,13 +6579,13 @@
         <v>5004091</v>
       </c>
       <c r="B151" s="46" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C151" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D151" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="12.75">
@@ -6058,13 +6593,13 @@
         <v>5004092</v>
       </c>
       <c r="B152" s="46" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C152" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D152" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="12.75">
@@ -6072,13 +6607,13 @@
         <v>5004093</v>
       </c>
       <c r="B153" s="46" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C153" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D153" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="12.75">
@@ -6086,13 +6621,13 @@
         <v>5004094</v>
       </c>
       <c r="B154" s="46" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C154" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D154" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="12.75">
@@ -6100,13 +6635,13 @@
         <v>5004095</v>
       </c>
       <c r="B155" s="46" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C155" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D155" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="12.75">
@@ -6114,13 +6649,13 @@
         <v>5004096</v>
       </c>
       <c r="B156" s="46" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C156" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D156" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="12.75">
@@ -6128,13 +6663,13 @@
         <v>5004102</v>
       </c>
       <c r="B157" s="46" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C157" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D157" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="12.75">
@@ -6142,13 +6677,13 @@
         <v>5004104</v>
       </c>
       <c r="B158" s="46" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C158" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D158" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="12.75">
@@ -6156,13 +6691,13 @@
         <v>5004106</v>
       </c>
       <c r="B159" s="50" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C159" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D159" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="12.75">
@@ -6170,13 +6705,13 @@
         <v>5004107</v>
       </c>
       <c r="B160" s="50" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C160" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D160" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="12.75">
@@ -6184,13 +6719,13 @@
         <v>5004108</v>
       </c>
       <c r="B161" s="50" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C161" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D161" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="12.75">
@@ -6198,13 +6733,13 @@
         <v>5004109</v>
       </c>
       <c r="B162" s="50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C162" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D162" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="12.75">
@@ -6212,13 +6747,13 @@
         <v>5004110</v>
       </c>
       <c r="B163" s="50" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C163" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D163" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="12.75">
@@ -6226,13 +6761,13 @@
         <v>5004112</v>
       </c>
       <c r="B164" s="50" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C164" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D164" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="12.75">
@@ -6240,13 +6775,13 @@
         <v>5004113</v>
       </c>
       <c r="B165" s="50" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C165" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D165" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="12.75">
@@ -6254,13 +6789,13 @@
         <v>5004114</v>
       </c>
       <c r="B166" s="50" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C166" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D166" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="12.75">
@@ -6268,13 +6803,13 @@
         <v>5004115</v>
       </c>
       <c r="B167" s="50" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C167" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D167" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="12.75">
@@ -6282,13 +6817,13 @@
         <v>5004116</v>
       </c>
       <c r="B168" s="46" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C168" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D168" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="12.75">
@@ -6296,10 +6831,10 @@
         <v>5005001</v>
       </c>
       <c r="B169" s="42" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C169" s="43" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D169" s="44"/>
     </row>
@@ -6308,10 +6843,10 @@
         <v>5005002</v>
       </c>
       <c r="B170" s="42" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C170" s="43" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D170" s="44"/>
     </row>
@@ -6320,10 +6855,10 @@
         <v>5005004</v>
       </c>
       <c r="B171" s="42" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C171" s="43" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D171" s="44"/>
     </row>
@@ -6332,10 +6867,10 @@
         <v>5005005</v>
       </c>
       <c r="B172" s="42" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C172" s="43" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D172" s="44"/>
     </row>
@@ -6344,10 +6879,10 @@
         <v>5005006</v>
       </c>
       <c r="B173" s="42" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C173" s="43" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D173" s="44"/>
     </row>
@@ -6356,10 +6891,10 @@
         <v>5005007</v>
       </c>
       <c r="B174" s="42" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C174" s="43" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D174" s="44"/>
     </row>
@@ -6368,10 +6903,10 @@
         <v>5005012</v>
       </c>
       <c r="B175" s="42" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C175" s="43" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D175" s="44"/>
     </row>
@@ -6380,10 +6915,10 @@
         <v>5005017</v>
       </c>
       <c r="B176" s="42" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C176" s="43" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D176" s="44"/>
     </row>
@@ -6392,10 +6927,10 @@
         <v>5005018</v>
       </c>
       <c r="B177" s="42" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C177" s="43" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D177" s="44"/>
     </row>
@@ -6404,10 +6939,10 @@
         <v>5005020</v>
       </c>
       <c r="B178" s="42" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C178" s="43" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D178" s="44"/>
     </row>
@@ -6416,10 +6951,10 @@
         <v>5005021</v>
       </c>
       <c r="B179" s="42" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C179" s="43" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D179" s="44"/>
     </row>
@@ -6428,10 +6963,10 @@
         <v>5005022</v>
       </c>
       <c r="B180" s="42" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C180" s="43" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D180" s="44"/>
     </row>
@@ -6440,10 +6975,10 @@
         <v>5005023</v>
       </c>
       <c r="B181" s="42" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C181" s="43" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D181" s="44"/>
     </row>
@@ -6452,10 +6987,10 @@
         <v>5005024</v>
       </c>
       <c r="B182" s="42" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C182" s="43" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D182" s="44"/>
     </row>
@@ -6464,10 +6999,10 @@
         <v>5005025</v>
       </c>
       <c r="B183" s="42" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C183" s="43" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D183" s="44"/>
     </row>
@@ -6476,10 +7011,10 @@
         <v>5005027</v>
       </c>
       <c r="B184" s="42" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C184" s="43" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D184" s="44"/>
     </row>
@@ -6488,10 +7023,10 @@
         <v>5005028</v>
       </c>
       <c r="B185" s="42" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C185" s="43" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D185" s="44"/>
     </row>
@@ -6500,10 +7035,10 @@
         <v>5005029</v>
       </c>
       <c r="B186" s="42" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C186" s="43" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D186" s="44"/>
     </row>
@@ -6512,10 +7047,10 @@
         <v>5005033</v>
       </c>
       <c r="B187" s="42" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C187" s="43" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D187" s="44"/>
     </row>
@@ -6524,10 +7059,10 @@
         <v>5005034</v>
       </c>
       <c r="B188" s="42" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C188" s="43" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D188" s="44"/>
     </row>
@@ -6536,10 +7071,10 @@
         <v>5005035</v>
       </c>
       <c r="B189" s="42" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C189" s="43" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D189" s="44"/>
     </row>
@@ -6548,10 +7083,10 @@
         <v>5005036</v>
       </c>
       <c r="B190" s="42" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C190" s="43" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D190" s="44"/>
     </row>
@@ -6560,10 +7095,10 @@
         <v>5005038</v>
       </c>
       <c r="B191" s="42" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C191" s="43" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D191" s="44"/>
     </row>
@@ -6572,10 +7107,10 @@
         <v>5005040</v>
       </c>
       <c r="B192" s="42" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C192" s="43" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D192" s="44"/>
     </row>
@@ -6584,10 +7119,10 @@
         <v>5005041</v>
       </c>
       <c r="B193" s="52" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C193" s="43" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D193" s="44"/>
     </row>
@@ -6596,10 +7131,10 @@
         <v>5005042</v>
       </c>
       <c r="B194" s="52" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C194" s="43" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D194" s="44"/>
     </row>
@@ -6608,10 +7143,10 @@
         <v>5006001</v>
       </c>
       <c r="B195" s="42" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C195" s="43" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D195" s="44"/>
     </row>
@@ -6620,10 +7155,10 @@
         <v>5006002</v>
       </c>
       <c r="B196" s="42" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C196" s="43" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D196" s="44"/>
     </row>
@@ -6632,10 +7167,10 @@
         <v>5006003</v>
       </c>
       <c r="B197" s="42" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C197" s="43" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D197" s="44"/>
     </row>
@@ -6644,10 +7179,10 @@
         <v>5006005</v>
       </c>
       <c r="B198" s="42" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C198" s="43" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D198" s="44"/>
     </row>
@@ -6656,10 +7191,10 @@
         <v>5006006</v>
       </c>
       <c r="B199" s="42" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C199" s="43" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D199" s="44"/>
     </row>
@@ -6668,10 +7203,10 @@
         <v>5006007</v>
       </c>
       <c r="B200" s="42" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C200" s="43" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D200" s="44"/>
     </row>
@@ -6680,10 +7215,10 @@
         <v>5006008</v>
       </c>
       <c r="B201" s="42" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C201" s="43" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D201" s="44"/>
     </row>
@@ -6692,10 +7227,10 @@
         <v>5006009</v>
       </c>
       <c r="B202" s="42" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C202" s="43" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D202" s="44"/>
     </row>
@@ -6704,10 +7239,10 @@
         <v>5006010</v>
       </c>
       <c r="B203" s="42" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C203" s="43" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D203" s="44"/>
     </row>
@@ -6716,10 +7251,10 @@
         <v>5006011</v>
       </c>
       <c r="B204" s="42" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C204" s="43" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D204" s="44"/>
     </row>
@@ -6728,10 +7263,10 @@
         <v>5006014</v>
       </c>
       <c r="B205" s="42" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C205" s="43" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D205" s="44"/>
     </row>
@@ -6740,10 +7275,10 @@
         <v>5006015</v>
       </c>
       <c r="B206" s="42" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C206" s="43" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D206" s="44"/>
     </row>
@@ -6752,10 +7287,10 @@
         <v>5006016</v>
       </c>
       <c r="B207" s="42" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C207" s="43" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D207" s="44"/>
     </row>
@@ -6764,10 +7299,10 @@
         <v>5006017</v>
       </c>
       <c r="B208" s="42" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C208" s="43" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D208" s="44"/>
     </row>
@@ -6776,10 +7311,10 @@
         <v>5006018</v>
       </c>
       <c r="B209" s="42" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C209" s="43" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D209" s="44"/>
     </row>
@@ -6788,10 +7323,10 @@
         <v>5006019</v>
       </c>
       <c r="B210" s="42" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C210" s="43" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D210" s="44"/>
     </row>
@@ -6800,10 +7335,10 @@
         <v>5006020</v>
       </c>
       <c r="B211" s="42" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C211" s="43" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D211" s="44"/>
     </row>
@@ -6812,10 +7347,10 @@
         <v>5006021</v>
       </c>
       <c r="B212" s="42" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C212" s="43" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D212" s="44"/>
     </row>
@@ -6824,10 +7359,10 @@
         <v>5006022</v>
       </c>
       <c r="B213" s="42" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C213" s="43" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D213" s="44"/>
     </row>
@@ -6836,10 +7371,10 @@
         <v>5006023</v>
       </c>
       <c r="B214" s="42" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C214" s="43" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D214" s="44"/>
     </row>
@@ -6848,10 +7383,10 @@
         <v>5006027</v>
       </c>
       <c r="B215" s="42" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C215" s="43" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D215" s="44"/>
     </row>
@@ -6860,10 +7395,10 @@
         <v>5006029</v>
       </c>
       <c r="B216" s="42" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C216" s="43" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D216" s="44"/>
     </row>
@@ -6872,10 +7407,10 @@
         <v>5006030</v>
       </c>
       <c r="B217" s="42" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C217" s="43" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D217" s="44"/>
     </row>
@@ -6884,10 +7419,10 @@
         <v>5006034</v>
       </c>
       <c r="B218" s="42" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C218" s="43" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D218" s="44"/>
     </row>
@@ -6896,10 +7431,10 @@
         <v>5006035</v>
       </c>
       <c r="B219" s="42" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C219" s="43" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D219" s="44"/>
     </row>
@@ -6908,10 +7443,10 @@
         <v>5006036</v>
       </c>
       <c r="B220" s="42" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C220" s="43" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D220" s="44"/>
     </row>
@@ -6920,10 +7455,10 @@
         <v>5006037</v>
       </c>
       <c r="B221" s="42" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C221" s="43" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D221" s="44"/>
     </row>
@@ -6932,10 +7467,10 @@
         <v>5007002</v>
       </c>
       <c r="B222" s="42" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C222" s="43" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D222" s="44"/>
     </row>
@@ -6944,10 +7479,10 @@
         <v>5007005</v>
       </c>
       <c r="B223" s="42" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C223" s="43" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D223" s="44"/>
     </row>
@@ -6956,10 +7491,10 @@
         <v>5007006</v>
       </c>
       <c r="B224" s="42" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C224" s="43" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D224" s="44"/>
     </row>
@@ -6968,10 +7503,10 @@
         <v>5007007</v>
       </c>
       <c r="B225" s="42" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C225" s="43" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D225" s="44"/>
     </row>
@@ -6980,10 +7515,10 @@
         <v>5007008</v>
       </c>
       <c r="B226" s="42" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C226" s="43" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D226" s="44"/>
     </row>
@@ -6992,10 +7527,10 @@
         <v>5007009</v>
       </c>
       <c r="B227" s="42" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C227" s="43" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D227" s="44"/>
     </row>
@@ -7004,10 +7539,10 @@
         <v>5007012</v>
       </c>
       <c r="B228" s="42" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C228" s="43" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D228" s="44"/>
     </row>
@@ -7016,10 +7551,10 @@
         <v>5007014</v>
       </c>
       <c r="B229" s="42" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C229" s="43" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D229" s="44"/>
     </row>
@@ -7028,10 +7563,10 @@
         <v>5007015</v>
       </c>
       <c r="B230" s="42" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C230" s="43" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D230" s="44"/>
     </row>
@@ -7040,10 +7575,10 @@
         <v>5007016</v>
       </c>
       <c r="B231" s="42" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C231" s="43" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D231" s="44"/>
     </row>
@@ -7052,10 +7587,10 @@
         <v>5007021</v>
       </c>
       <c r="B232" s="42" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C232" s="43" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D232" s="44"/>
     </row>
@@ -7064,10 +7599,10 @@
         <v>5007022</v>
       </c>
       <c r="B233" s="42" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C233" s="43" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D233" s="44"/>
     </row>
@@ -7076,10 +7611,10 @@
         <v>5007023</v>
       </c>
       <c r="B234" s="42" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C234" s="43" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D234" s="44"/>
     </row>
@@ -7088,10 +7623,10 @@
         <v>5007024</v>
       </c>
       <c r="B235" s="42" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C235" s="43" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D235" s="44"/>
     </row>
@@ -7100,10 +7635,10 @@
         <v>5007026</v>
       </c>
       <c r="B236" s="42" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C236" s="43" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D236" s="44"/>
     </row>
@@ -7112,10 +7647,10 @@
         <v>5007027</v>
       </c>
       <c r="B237" s="42" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C237" s="43" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D237" s="44"/>
     </row>
@@ -7124,10 +7659,10 @@
         <v>5007028</v>
       </c>
       <c r="B238" s="42" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C238" s="43" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D238" s="44"/>
     </row>
@@ -7136,10 +7671,10 @@
         <v>5007029</v>
       </c>
       <c r="B239" s="42" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C239" s="43" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D239" s="44"/>
     </row>
@@ -7148,10 +7683,10 @@
         <v>5007030</v>
       </c>
       <c r="B240" s="42" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C240" s="43" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D240" s="44"/>
     </row>
@@ -7160,10 +7695,10 @@
         <v>5007033</v>
       </c>
       <c r="B241" s="42" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C241" s="43" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D241" s="44"/>
     </row>
@@ -7172,10 +7707,10 @@
         <v>5007036</v>
       </c>
       <c r="B242" s="42" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C242" s="43" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D242" s="44"/>
     </row>
@@ -7184,10 +7719,10 @@
         <v>5007037</v>
       </c>
       <c r="B243" s="42" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C243" s="43" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D243" s="44"/>
     </row>
@@ -7196,10 +7731,10 @@
         <v>5007041</v>
       </c>
       <c r="B244" s="42" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C244" s="43" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D244" s="44"/>
     </row>
@@ -7208,10 +7743,10 @@
         <v>5007042</v>
       </c>
       <c r="B245" s="42" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C245" s="43" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D245" s="44"/>
     </row>
@@ -7220,10 +7755,10 @@
         <v>5007043</v>
       </c>
       <c r="B246" s="42" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C246" s="43" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D246" s="44"/>
     </row>
@@ -7232,10 +7767,10 @@
         <v>5007044</v>
       </c>
       <c r="B247" s="42" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C247" s="43" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D247" s="44"/>
     </row>
@@ -7244,10 +7779,10 @@
         <v>5007045</v>
       </c>
       <c r="B248" s="52" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C248" s="43" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D248" s="44"/>
     </row>
@@ -7256,10 +7791,10 @@
         <v>5007046</v>
       </c>
       <c r="B249" s="52" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C249" s="43" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D249" s="44"/>
     </row>
@@ -7268,10 +7803,10 @@
         <v>5007047</v>
       </c>
       <c r="B250" s="52" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C250" s="43" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D250" s="44"/>
     </row>
@@ -7280,10 +7815,10 @@
         <v>5007048</v>
       </c>
       <c r="B251" s="52" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C251" s="43" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D251" s="44"/>
     </row>
@@ -7292,10 +7827,10 @@
         <v>5007049</v>
       </c>
       <c r="B252" s="54" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C252" s="43" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D252" s="44"/>
     </row>
@@ -7304,10 +7839,10 @@
         <v>5008003</v>
       </c>
       <c r="B253" s="42" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C253" s="43" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D253" s="44"/>
     </row>
@@ -7316,10 +7851,10 @@
         <v>5008004</v>
       </c>
       <c r="B254" s="42" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C254" s="43" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D254" s="44"/>
     </row>
@@ -7328,10 +7863,10 @@
         <v>5008005</v>
       </c>
       <c r="B255" s="42" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C255" s="43" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D255" s="44"/>
     </row>
@@ -7340,10 +7875,10 @@
         <v>5008006</v>
       </c>
       <c r="B256" s="42" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C256" s="43" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D256" s="44"/>
     </row>
@@ -7352,10 +7887,10 @@
         <v>5008007</v>
       </c>
       <c r="B257" s="42" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C257" s="43" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D257" s="44"/>
     </row>
@@ -7364,10 +7899,10 @@
         <v>5008008</v>
       </c>
       <c r="B258" s="42" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C258" s="43" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D258" s="44"/>
     </row>
@@ -7376,10 +7911,10 @@
         <v>5008010</v>
       </c>
       <c r="B259" s="42" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C259" s="43" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D259" s="44"/>
     </row>
@@ -7388,10 +7923,10 @@
         <v>5008011</v>
       </c>
       <c r="B260" s="42" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C260" s="43" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D260" s="44"/>
     </row>
@@ -7400,10 +7935,10 @@
         <v>5008012</v>
       </c>
       <c r="B261" s="42" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C261" s="43" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D261" s="44"/>
     </row>
@@ -7412,10 +7947,10 @@
         <v>5008013</v>
       </c>
       <c r="B262" s="42" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C262" s="43" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D262" s="44"/>
     </row>
@@ -7424,10 +7959,10 @@
         <v>5008022</v>
       </c>
       <c r="B263" s="42" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C263" s="43" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D263" s="44"/>
     </row>
@@ -7436,10 +7971,10 @@
         <v>5008023</v>
       </c>
       <c r="B264" s="42" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C264" s="43" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D264" s="44"/>
     </row>
@@ -7448,10 +7983,10 @@
         <v>5008024</v>
       </c>
       <c r="B265" s="42" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C265" s="43" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D265" s="44"/>
     </row>
@@ -7460,10 +7995,10 @@
         <v>5008025</v>
       </c>
       <c r="B266" s="42" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C266" s="43" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D266" s="44"/>
     </row>
@@ -7472,10 +8007,10 @@
         <v>5008027</v>
       </c>
       <c r="B267" s="42" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C267" s="43" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D267" s="44"/>
     </row>
@@ -7484,10 +8019,10 @@
         <v>5008028</v>
       </c>
       <c r="B268" s="42" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C268" s="43" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D268" s="44"/>
     </row>
@@ -7496,10 +8031,10 @@
         <v>5008029</v>
       </c>
       <c r="B269" s="42" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C269" s="43" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D269" s="44"/>
     </row>
@@ -7508,10 +8043,10 @@
         <v>5008030</v>
       </c>
       <c r="B270" s="42" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C270" s="43" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D270" s="44"/>
     </row>
@@ -7520,10 +8055,10 @@
         <v>5008031</v>
       </c>
       <c r="B271" s="52" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C271" s="43" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D271" s="44"/>
     </row>
@@ -7532,10 +8067,10 @@
         <v>5009001</v>
       </c>
       <c r="B272" s="42" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C272" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D272" s="44"/>
     </row>
@@ -7544,10 +8079,10 @@
         <v>5009003</v>
       </c>
       <c r="B273" s="42" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C273" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D273" s="44"/>
     </row>
@@ -7556,10 +8091,10 @@
         <v>5009004</v>
       </c>
       <c r="B274" s="42" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C274" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D274" s="44"/>
     </row>
@@ -7568,10 +8103,10 @@
         <v>5009006</v>
       </c>
       <c r="B275" s="42" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C275" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D275" s="44"/>
     </row>
@@ -7580,10 +8115,10 @@
         <v>5009008</v>
       </c>
       <c r="B276" s="42" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C276" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D276" s="44"/>
     </row>
@@ -7592,10 +8127,10 @@
         <v>5009010</v>
       </c>
       <c r="B277" s="42" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C277" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D277" s="44"/>
     </row>
@@ -7604,10 +8139,10 @@
         <v>5009012</v>
       </c>
       <c r="B278" s="42" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C278" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D278" s="44"/>
     </row>
@@ -7616,10 +8151,10 @@
         <v>5009013</v>
       </c>
       <c r="B279" s="42" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C279" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D279" s="44"/>
     </row>
@@ -7628,10 +8163,10 @@
         <v>5009014</v>
       </c>
       <c r="B280" s="42" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C280" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D280" s="44"/>
     </row>
@@ -7640,10 +8175,10 @@
         <v>5009015</v>
       </c>
       <c r="B281" s="42" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C281" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D281" s="44"/>
     </row>
@@ -7652,10 +8187,10 @@
         <v>5009016</v>
       </c>
       <c r="B282" s="42" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C282" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D282" s="44"/>
     </row>
@@ -7664,10 +8199,10 @@
         <v>5009017</v>
       </c>
       <c r="B283" s="42" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C283" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D283" s="44"/>
     </row>
@@ -7676,10 +8211,10 @@
         <v>5009018</v>
       </c>
       <c r="B284" s="42" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C284" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D284" s="44"/>
     </row>
@@ -7688,10 +8223,10 @@
         <v>5009019</v>
       </c>
       <c r="B285" s="42" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C285" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D285" s="44"/>
     </row>
@@ -7700,10 +8235,10 @@
         <v>5009020</v>
       </c>
       <c r="B286" s="42" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C286" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D286" s="44"/>
     </row>
@@ -7712,10 +8247,10 @@
         <v>5009021</v>
       </c>
       <c r="B287" s="42" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C287" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D287" s="44"/>
     </row>
@@ -7724,10 +8259,10 @@
         <v>5009022</v>
       </c>
       <c r="B288" s="42" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C288" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D288" s="44"/>
     </row>
@@ -7736,10 +8271,10 @@
         <v>5009023</v>
       </c>
       <c r="B289" s="42" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C289" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D289" s="44"/>
     </row>
@@ -7748,10 +8283,10 @@
         <v>5009024</v>
       </c>
       <c r="B290" s="42" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C290" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D290" s="44"/>
     </row>
@@ -7760,10 +8295,10 @@
         <v>5009025</v>
       </c>
       <c r="B291" s="42" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C291" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D291" s="44"/>
     </row>
@@ -7772,10 +8307,10 @@
         <v>5009026</v>
       </c>
       <c r="B292" s="42" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C292" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D292" s="44"/>
     </row>
@@ -7784,10 +8319,10 @@
         <v>5009027</v>
       </c>
       <c r="B293" s="42" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C293" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D293" s="44"/>
     </row>
@@ -7796,10 +8331,10 @@
         <v>5009028</v>
       </c>
       <c r="B294" s="42" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C294" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D294" s="44"/>
     </row>
@@ -7808,10 +8343,10 @@
         <v>5009029</v>
       </c>
       <c r="B295" s="42" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C295" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D295" s="44"/>
     </row>
@@ -7820,10 +8355,10 @@
         <v>5009030</v>
       </c>
       <c r="B296" s="42" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C296" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D296" s="44"/>
     </row>
@@ -7832,10 +8367,10 @@
         <v>5009031</v>
       </c>
       <c r="B297" s="42" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C297" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D297" s="44"/>
     </row>
@@ -7844,10 +8379,10 @@
         <v>5009033</v>
       </c>
       <c r="B298" s="42" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C298" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D298" s="44"/>
     </row>
@@ -7856,10 +8391,10 @@
         <v>5009034</v>
       </c>
       <c r="B299" s="42" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C299" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D299" s="44"/>
     </row>
@@ -7868,10 +8403,10 @@
         <v>5009035</v>
       </c>
       <c r="B300" s="42" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C300" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D300" s="44"/>
     </row>
@@ -7880,10 +8415,10 @@
         <v>5009037</v>
       </c>
       <c r="B301" s="42" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C301" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D301" s="44"/>
     </row>
@@ -7892,10 +8427,10 @@
         <v>5009038</v>
       </c>
       <c r="B302" s="42" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C302" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D302" s="44"/>
     </row>
@@ -7904,10 +8439,10 @@
         <v>5009039</v>
       </c>
       <c r="B303" s="42" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C303" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D303" s="44"/>
     </row>
@@ -7916,10 +8451,10 @@
         <v>5009040</v>
       </c>
       <c r="B304" s="42" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C304" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D304" s="44"/>
     </row>
@@ -7928,10 +8463,10 @@
         <v>5009041</v>
       </c>
       <c r="B305" s="42" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C305" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D305" s="44"/>
     </row>
@@ -7940,10 +8475,10 @@
         <v>5009042</v>
       </c>
       <c r="B306" s="52" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C306" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D306" s="44"/>
     </row>
@@ -7952,10 +8487,10 @@
         <v>5009043</v>
       </c>
       <c r="B307" s="52" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C307" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D307" s="44"/>
     </row>
@@ -7964,13 +8499,13 @@
         <v>5010001</v>
       </c>
       <c r="B308" s="46" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C308" s="47" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D308" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="12.75">
@@ -7978,13 +8513,13 @@
         <v>5010002</v>
       </c>
       <c r="B309" s="46" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C309" s="47" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D309" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="12.75">
@@ -7992,13 +8527,13 @@
         <v>5010005</v>
       </c>
       <c r="B310" s="46" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C310" s="47" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D310" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="12.75">
@@ -8006,13 +8541,13 @@
         <v>5010009</v>
       </c>
       <c r="B311" s="46" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C311" s="47" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D311" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="12.75">
@@ -8020,13 +8555,13 @@
         <v>5010012</v>
       </c>
       <c r="B312" s="46" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C312" s="47" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D312" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="313" spans="1:4" ht="12.75">
@@ -8034,13 +8569,13 @@
         <v>5010016</v>
       </c>
       <c r="B313" s="46" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C313" s="47" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D313" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="12.75">
@@ -8048,13 +8583,13 @@
         <v>5010027</v>
       </c>
       <c r="B314" s="46" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C314" s="47" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D314" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="12.75">
@@ -8062,13 +8597,13 @@
         <v>5010029</v>
       </c>
       <c r="B315" s="46" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C315" s="47" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D315" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="12.75">
@@ -8076,13 +8611,13 @@
         <v>5010035</v>
       </c>
       <c r="B316" s="46" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C316" s="47" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D316" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="317" spans="1:4" ht="12.75">
@@ -8090,13 +8625,13 @@
         <v>5010036</v>
       </c>
       <c r="B317" s="46" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C317" s="47" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D317" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="318" spans="1:4" ht="12.75">
@@ -8104,13 +8639,13 @@
         <v>5010037</v>
       </c>
       <c r="B318" s="46" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C318" s="47" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D318" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="12.75">
@@ -8118,13 +8653,13 @@
         <v>5010038</v>
       </c>
       <c r="B319" s="46" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C319" s="47" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D319" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="320" spans="1:4" ht="12.75">
@@ -8132,13 +8667,13 @@
         <v>5010039</v>
       </c>
       <c r="B320" s="46" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C320" s="47" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D320" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="12.75">
@@ -8146,13 +8681,13 @@
         <v>5010040</v>
       </c>
       <c r="B321" s="46" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C321" s="47" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D321" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="12.75">
@@ -8160,13 +8695,13 @@
         <v>5010041</v>
       </c>
       <c r="B322" s="46" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C322" s="47" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D322" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="12.75">
@@ -8174,13 +8709,13 @@
         <v>5010042</v>
       </c>
       <c r="B323" s="46" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C323" s="47" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D323" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="324" spans="1:4" ht="12.75">
@@ -8188,13 +8723,13 @@
         <v>5010044</v>
       </c>
       <c r="B324" s="46" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C324" s="47" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D324" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="12.75">
@@ -8202,13 +8737,13 @@
         <v>5010046</v>
       </c>
       <c r="B325" s="46" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C325" s="47" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D325" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="326" spans="1:4" ht="12.75">
@@ -8216,13 +8751,13 @@
         <v>5010047</v>
       </c>
       <c r="B326" s="46" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C326" s="47" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D326" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="327" spans="1:4" ht="12.75">
@@ -8230,13 +8765,13 @@
         <v>5010049</v>
       </c>
       <c r="B327" s="46" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C327" s="47" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D327" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="328" spans="1:4" ht="12.75">
@@ -8244,13 +8779,13 @@
         <v>5010050</v>
       </c>
       <c r="B328" s="50" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C328" s="47" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D328" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="329" spans="1:4" ht="12.75">
@@ -8258,13 +8793,13 @@
         <v>5010051</v>
       </c>
       <c r="B329" s="50" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C329" s="47" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D329" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="330" spans="1:4" ht="12.75">
@@ -8272,13 +8807,13 @@
         <v>5010052</v>
       </c>
       <c r="B330" s="50" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C330" s="47" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D330" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="331" spans="1:4" ht="12.75">
@@ -8286,13 +8821,13 @@
         <v>5010053</v>
       </c>
       <c r="B331" s="50" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C331" s="47" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D331" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="332" spans="1:4" ht="12.75">
@@ -8300,13 +8835,13 @@
         <v>5010054</v>
       </c>
       <c r="B332" s="50" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C332" s="47" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D332" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="333" spans="1:4" ht="12.75">
@@ -8314,10 +8849,10 @@
         <v>5011001</v>
       </c>
       <c r="B333" s="42" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C333" s="43" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D333" s="44"/>
     </row>
@@ -8326,10 +8861,10 @@
         <v>5011003</v>
       </c>
       <c r="B334" s="42" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C334" s="43" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D334" s="44"/>
     </row>
@@ -8338,10 +8873,10 @@
         <v>5011004</v>
       </c>
       <c r="B335" s="42" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C335" s="43" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D335" s="44"/>
     </row>
@@ -8350,10 +8885,10 @@
         <v>5011005</v>
       </c>
       <c r="B336" s="42" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C336" s="43" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D336" s="44"/>
     </row>
@@ -8362,10 +8897,10 @@
         <v>5011006</v>
       </c>
       <c r="B337" s="42" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C337" s="43" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D337" s="44"/>
     </row>
@@ -8374,10 +8909,10 @@
         <v>5011007</v>
       </c>
       <c r="B338" s="56" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C338" s="43" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D338" s="44"/>
     </row>
@@ -8386,10 +8921,10 @@
         <v>5011009</v>
       </c>
       <c r="B339" s="56" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C339" s="43" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D339" s="44"/>
     </row>
@@ -8398,10 +8933,10 @@
         <v>5011010</v>
       </c>
       <c r="B340" s="56" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C340" s="43" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D340" s="44"/>
     </row>
@@ -8410,10 +8945,10 @@
         <v>5011011</v>
       </c>
       <c r="B341" s="56" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C341" s="43" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D341" s="44"/>
     </row>
@@ -8422,10 +8957,10 @@
         <v>5011012</v>
       </c>
       <c r="B342" s="56" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C342" s="43" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D342" s="44"/>
     </row>
@@ -8434,10 +8969,10 @@
         <v>5011013</v>
       </c>
       <c r="B343" s="56" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C343" s="43" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D343" s="44"/>
     </row>
@@ -8446,10 +8981,10 @@
         <v>5011016</v>
       </c>
       <c r="B344" s="56" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C344" s="43" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D344" s="44"/>
     </row>
@@ -8458,10 +8993,10 @@
         <v>5011017</v>
       </c>
       <c r="B345" s="56" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C345" s="43" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D345" s="44"/>
     </row>
@@ -8470,10 +9005,10 @@
         <v>5011018</v>
       </c>
       <c r="B346" s="56" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C346" s="43" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D346" s="44"/>
     </row>
@@ -8482,10 +9017,10 @@
         <v>5011019</v>
       </c>
       <c r="B347" s="42" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C347" s="43" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D347" s="44"/>
     </row>
@@ -8494,10 +9029,10 @@
         <v>5011020</v>
       </c>
       <c r="B348" s="42" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C348" s="43" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D348" s="44"/>
     </row>
@@ -8506,10 +9041,10 @@
         <v>5011021</v>
       </c>
       <c r="B349" s="42" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C349" s="43" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D349" s="44"/>
     </row>
@@ -8518,10 +9053,10 @@
         <v>5011022</v>
       </c>
       <c r="B350" s="42" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C350" s="43" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D350" s="44"/>
     </row>
@@ -8530,10 +9065,10 @@
         <v>5011025</v>
       </c>
       <c r="B351" s="42" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C351" s="43" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D351" s="44"/>
     </row>
@@ -8542,10 +9077,10 @@
         <v>5011027</v>
       </c>
       <c r="B352" s="42" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C352" s="43" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D352" s="44"/>
     </row>
@@ -8554,10 +9089,10 @@
         <v>5011028</v>
       </c>
       <c r="B353" s="42" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C353" s="43" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D353" s="44"/>
     </row>
@@ -8566,10 +9101,10 @@
         <v>5011029</v>
       </c>
       <c r="B354" s="42" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C354" s="43" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D354" s="44"/>
     </row>
@@ -8578,10 +9113,10 @@
         <v>5011030</v>
       </c>
       <c r="B355" s="42" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C355" s="43" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D355" s="44"/>
     </row>
@@ -8590,10 +9125,10 @@
         <v>5011031</v>
       </c>
       <c r="B356" s="42" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C356" s="43" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D356" s="44"/>
     </row>
@@ -8602,10 +9137,10 @@
         <v>5011043</v>
       </c>
       <c r="B357" s="42" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C357" s="43" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D357" s="44"/>
     </row>
@@ -8614,10 +9149,10 @@
         <v>5011044</v>
       </c>
       <c r="B358" s="42" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C358" s="43" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D358" s="44"/>
     </row>
@@ -8626,10 +9161,10 @@
         <v>5011045</v>
       </c>
       <c r="B359" s="42" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C359" s="43" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D359" s="44"/>
     </row>
@@ -8638,10 +9173,10 @@
         <v>5011046</v>
       </c>
       <c r="B360" s="42" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C360" s="43" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D360" s="44"/>
     </row>
@@ -8650,10 +9185,10 @@
         <v>5011047</v>
       </c>
       <c r="B361" s="42" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C361" s="43" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D361" s="44"/>
     </row>
@@ -8662,10 +9197,10 @@
         <v>5011048</v>
       </c>
       <c r="B362" s="42" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C362" s="43" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D362" s="44"/>
     </row>
@@ -8674,10 +9209,10 @@
         <v>5011049</v>
       </c>
       <c r="B363" s="42" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C363" s="43" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D363" s="44"/>
     </row>
@@ -8686,10 +9221,10 @@
         <v>5011052</v>
       </c>
       <c r="B364" s="42" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C364" s="43" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D364" s="44"/>
     </row>
@@ -8698,10 +9233,10 @@
         <v>5011053</v>
       </c>
       <c r="B365" s="42" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C365" s="43" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D365" s="44"/>
     </row>
@@ -8710,10 +9245,10 @@
         <v>5011054</v>
       </c>
       <c r="B366" s="42" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C366" s="43" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D366" s="44"/>
     </row>
@@ -8722,10 +9257,10 @@
         <v>5011055</v>
       </c>
       <c r="B367" s="42" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C367" s="43" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D367" s="44"/>
     </row>
@@ -8734,10 +9269,10 @@
         <v>5011056</v>
       </c>
       <c r="B368" s="42" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C368" s="43" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D368" s="44"/>
     </row>
@@ -8746,10 +9281,10 @@
         <v>5012003</v>
       </c>
       <c r="B369" s="42" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C369" s="43" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D369" s="44"/>
     </row>
@@ -8758,10 +9293,10 @@
         <v>5012010</v>
       </c>
       <c r="B370" s="42" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C370" s="43" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D370" s="44"/>
     </row>
@@ -8770,10 +9305,10 @@
         <v>5012021</v>
       </c>
       <c r="B371" s="42" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C371" s="43" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D371" s="44"/>
     </row>
@@ -8782,10 +9317,10 @@
         <v>5012022</v>
       </c>
       <c r="B372" s="42" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C372" s="43" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D372" s="44"/>
     </row>
@@ -8794,10 +9329,10 @@
         <v>5012024</v>
       </c>
       <c r="B373" s="42" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C373" s="43" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D373" s="44"/>
     </row>
@@ -8806,10 +9341,10 @@
         <v>5012025</v>
       </c>
       <c r="B374" s="52" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C374" s="43" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D374" s="44"/>
     </row>
@@ -8818,13 +9353,13 @@
         <v>5013001</v>
       </c>
       <c r="B375" s="46" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C375" s="47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D375" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="376" spans="1:4" ht="12.75">
@@ -8832,13 +9367,13 @@
         <v>5013003</v>
       </c>
       <c r="B376" s="46" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C376" s="47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D376" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="377" spans="1:4" ht="12.75">
@@ -8846,13 +9381,13 @@
         <v>5013004</v>
       </c>
       <c r="B377" s="46" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C377" s="47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D377" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="378" spans="1:4" ht="12.75">
@@ -8860,13 +9395,13 @@
         <v>5013009</v>
       </c>
       <c r="B378" s="46" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C378" s="47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D378" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="379" spans="1:4" ht="12.75">
@@ -8874,13 +9409,13 @@
         <v>5013010</v>
       </c>
       <c r="B379" s="46" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C379" s="47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D379" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="380" spans="1:4" ht="12.75">
@@ -8888,13 +9423,13 @@
         <v>5013014</v>
       </c>
       <c r="B380" s="46" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C380" s="47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D380" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="381" spans="1:4" ht="12.75">
@@ -8902,13 +9437,13 @@
         <v>5013019</v>
       </c>
       <c r="B381" s="46" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C381" s="47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D381" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="382" spans="1:4" ht="12.75">
@@ -8916,13 +9451,13 @@
         <v>5013025</v>
       </c>
       <c r="B382" s="46" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C382" s="47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D382" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="383" spans="1:4" ht="12.75">
@@ -8930,13 +9465,13 @@
         <v>5013026</v>
       </c>
       <c r="B383" s="46" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C383" s="47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D383" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="384" spans="1:4" ht="12.75">
@@ -8944,13 +9479,13 @@
         <v>5013028</v>
       </c>
       <c r="B384" s="46" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C384" s="47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D384" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="385" spans="1:4" ht="12.75">
@@ -8958,13 +9493,13 @@
         <v>5013029</v>
       </c>
       <c r="B385" s="46" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C385" s="47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D385" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="386" spans="1:4" ht="12.75">
@@ -8972,13 +9507,13 @@
         <v>5013030</v>
       </c>
       <c r="B386" s="46" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C386" s="47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D386" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="387" spans="1:4" ht="12.75">
@@ -8986,13 +9521,13 @@
         <v>5013031</v>
       </c>
       <c r="B387" s="46" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C387" s="47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D387" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="388" spans="1:4" ht="12.75">
@@ -9000,13 +9535,13 @@
         <v>5013033</v>
       </c>
       <c r="B388" s="46" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C388" s="47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D388" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="389" spans="1:4" ht="12.75">
@@ -9014,13 +9549,13 @@
         <v>5013034</v>
       </c>
       <c r="B389" s="46" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C389" s="47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D389" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="390" spans="1:4" ht="12.75">
@@ -9028,13 +9563,13 @@
         <v>5013035</v>
       </c>
       <c r="B390" s="46" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C390" s="47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D390" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="391" spans="1:4" ht="12.75">
@@ -9042,13 +9577,13 @@
         <v>5013036</v>
       </c>
       <c r="B391" s="46" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C391" s="47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D391" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="392" spans="1:4" ht="12.75">
@@ -9056,13 +9591,13 @@
         <v>5013037</v>
       </c>
       <c r="B392" s="46" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C392" s="47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D392" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="393" spans="1:4" ht="12.75">
@@ -9070,13 +9605,13 @@
         <v>5013038</v>
       </c>
       <c r="B393" s="46" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C393" s="47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D393" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="394" spans="1:4" ht="12.75">
@@ -9084,13 +9619,13 @@
         <v>5013039</v>
       </c>
       <c r="B394" s="46" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C394" s="47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D394" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="395" spans="1:4" ht="12.75">
@@ -9098,13 +9633,13 @@
         <v>5013044</v>
       </c>
       <c r="B395" s="46" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C395" s="47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D395" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="396" spans="1:4" ht="12.75">
@@ -9112,13 +9647,13 @@
         <v>5013045</v>
       </c>
       <c r="B396" s="46" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C396" s="47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D396" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="397" spans="1:4" ht="12.75">
@@ -9126,13 +9661,13 @@
         <v>5013046</v>
       </c>
       <c r="B397" s="46" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C397" s="47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D397" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="398" spans="1:4" ht="12.75">
@@ -9140,13 +9675,13 @@
         <v>5013047</v>
       </c>
       <c r="B398" s="46" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C398" s="47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D398" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="399" spans="1:4" ht="12.75">
@@ -9154,13 +9689,13 @@
         <v>5013048</v>
       </c>
       <c r="B399" s="46" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C399" s="47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D399" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="400" spans="1:4" ht="12.75">
@@ -9168,13 +9703,13 @@
         <v>5013049</v>
       </c>
       <c r="B400" s="46" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C400" s="47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D400" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="401" spans="1:4" ht="12.75">
@@ -9182,13 +9717,13 @@
         <v>5013052</v>
       </c>
       <c r="B401" s="46" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C401" s="47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D401" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="402" spans="1:4" ht="12.75">
@@ -9196,13 +9731,13 @@
         <v>5013053</v>
       </c>
       <c r="B402" s="46" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C402" s="47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D402" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="403" spans="1:4" ht="12.75">
@@ -9210,13 +9745,13 @@
         <v>5013054</v>
       </c>
       <c r="B403" s="46" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C403" s="47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D403" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="404" spans="1:4" ht="12.75">
@@ -9224,13 +9759,13 @@
         <v>5013055</v>
       </c>
       <c r="B404" s="46" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C404" s="47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D404" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="405" spans="1:4" ht="12.75">
@@ -9238,13 +9773,13 @@
         <v>5013056</v>
       </c>
       <c r="B405" s="46" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C405" s="47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D405" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="406" spans="1:4" ht="12.75">
@@ -9252,13 +9787,13 @@
         <v>5013057</v>
       </c>
       <c r="B406" s="46" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C406" s="47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D406" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="407" spans="1:4" ht="12.75">
@@ -9266,13 +9801,13 @@
         <v>5013058</v>
       </c>
       <c r="B407" s="46" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C407" s="47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D407" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="408" spans="1:4" ht="12.75">
@@ -9280,10 +9815,10 @@
         <v>5014001</v>
       </c>
       <c r="B408" s="42" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C408" s="43" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D408" s="44"/>
     </row>
@@ -9292,10 +9827,10 @@
         <v>5014002</v>
       </c>
       <c r="B409" s="42" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C409" s="43" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D409" s="44"/>
     </row>
@@ -9304,10 +9839,10 @@
         <v>5014003</v>
       </c>
       <c r="B410" s="42" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C410" s="43" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D410" s="44"/>
     </row>
@@ -9316,10 +9851,10 @@
         <v>5014004</v>
       </c>
       <c r="B411" s="42" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C411" s="43" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D411" s="44"/>
     </row>
@@ -9328,10 +9863,10 @@
         <v>6041916</v>
       </c>
       <c r="B412" s="42" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C412" s="57" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D412" s="58"/>
     </row>
@@ -9340,10 +9875,10 @@
         <v>5015003</v>
       </c>
       <c r="B413" s="42" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C413" s="43" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D413" s="44"/>
     </row>
@@ -9352,10 +9887,10 @@
         <v>5103020</v>
       </c>
       <c r="B414" s="42" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C414" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D414" s="60"/>
     </row>
@@ -9364,10 +9899,10 @@
         <v>5104013</v>
       </c>
       <c r="B415" s="42" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C415" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D415" s="60"/>
     </row>
@@ -9376,10 +9911,10 @@
         <v>5104066</v>
       </c>
       <c r="B416" s="42" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C416" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D416" s="60"/>
     </row>
@@ -9388,10 +9923,10 @@
         <v>5104083</v>
       </c>
       <c r="B417" s="42" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C417" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D417" s="60"/>
     </row>
@@ -9400,10 +9935,10 @@
         <v>5104085</v>
       </c>
       <c r="B418" s="42" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C418" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D418" s="60"/>
     </row>
@@ -9412,10 +9947,10 @@
         <v>5104068</v>
       </c>
       <c r="B419" s="42" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C419" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D419" s="60"/>
     </row>
@@ -9424,10 +9959,10 @@
         <v>5104078</v>
       </c>
       <c r="B420" s="42" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C420" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D420" s="60"/>
     </row>
@@ -9436,10 +9971,10 @@
         <v>5104067</v>
       </c>
       <c r="B421" s="42" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C421" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D421" s="60"/>
     </row>
@@ -9448,10 +9983,10 @@
         <v>5104069</v>
       </c>
       <c r="B422" s="42" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C422" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D422" s="60"/>
     </row>
@@ -9460,10 +9995,10 @@
         <v>5104079</v>
       </c>
       <c r="B423" s="42" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C423" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D423" s="60"/>
     </row>
@@ -9472,10 +10007,10 @@
         <v>5104025</v>
       </c>
       <c r="B424" s="42" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C424" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D424" s="60"/>
     </row>
@@ -9484,10 +10019,10 @@
         <v>5104080</v>
       </c>
       <c r="B425" s="42" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C425" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D425" s="60"/>
     </row>
@@ -9496,10 +10031,10 @@
         <v>5103032</v>
       </c>
       <c r="B426" s="42" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C426" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D426" s="60"/>
     </row>
@@ -9508,10 +10043,10 @@
         <v>5104010</v>
       </c>
       <c r="B427" s="42" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C427" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D427" s="60"/>
     </row>
@@ -9520,10 +10055,10 @@
         <v>5104026</v>
       </c>
       <c r="B428" s="42" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C428" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D428" s="60"/>
     </row>
@@ -9532,10 +10067,10 @@
         <v>5104075</v>
       </c>
       <c r="B429" s="42" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C429" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D429" s="60"/>
     </row>
@@ -9544,10 +10079,10 @@
         <v>5104018</v>
       </c>
       <c r="B430" s="42" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C430" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D430" s="60"/>
     </row>
@@ -9556,10 +10091,10 @@
         <v>5102001</v>
       </c>
       <c r="B431" s="42" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C431" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D431" s="60"/>
     </row>
@@ -9568,10 +10103,10 @@
         <v>5106049</v>
       </c>
       <c r="B432" s="42" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C432" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D432" s="60"/>
     </row>
@@ -9580,10 +10115,10 @@
         <v>5106048</v>
       </c>
       <c r="B433" s="42" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C433" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D433" s="60"/>
     </row>
@@ -9592,10 +10127,10 @@
         <v>5102010</v>
       </c>
       <c r="B434" s="42" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C434" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D434" s="60"/>
     </row>
@@ -9604,10 +10139,10 @@
         <v>5104076</v>
       </c>
       <c r="B435" s="42" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C435" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D435" s="60"/>
     </row>
@@ -9616,10 +10151,10 @@
         <v>5104019</v>
       </c>
       <c r="B436" s="42" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C436" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D436" s="60"/>
     </row>
@@ -9628,10 +10163,10 @@
         <v>5104077</v>
       </c>
       <c r="B437" s="42" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C437" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D437" s="60"/>
     </row>
@@ -9640,10 +10175,10 @@
         <v>5106036</v>
       </c>
       <c r="B438" s="42" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C438" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D438" s="60"/>
     </row>
@@ -9652,10 +10187,10 @@
         <v>5106047</v>
       </c>
       <c r="B439" s="42" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C439" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D439" s="60"/>
     </row>
@@ -9664,10 +10199,10 @@
         <v>5106018</v>
       </c>
       <c r="B440" s="42" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="C440" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D440" s="60"/>
     </row>
@@ -9676,10 +10211,10 @@
         <v>5106038</v>
       </c>
       <c r="B441" s="42" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C441" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D441" s="60"/>
     </row>
@@ -9688,10 +10223,10 @@
         <v>5106017</v>
       </c>
       <c r="B442" s="42" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C442" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D442" s="60"/>
     </row>
@@ -9700,10 +10235,10 @@
         <v>5106019</v>
       </c>
       <c r="B443" s="42" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C443" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D443" s="60"/>
     </row>
@@ -9712,10 +10247,10 @@
         <v>6041918</v>
       </c>
       <c r="B444" s="42" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C444" s="57" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D444" s="58"/>
     </row>
@@ -9724,10 +10259,10 @@
         <v>5103029</v>
       </c>
       <c r="B445" s="42" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C445" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D445" s="60"/>
     </row>
@@ -9736,10 +10271,10 @@
         <v>5106040</v>
       </c>
       <c r="B446" s="42" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C446" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D446" s="60"/>
     </row>
@@ -9748,10 +10283,10 @@
         <v>5103027</v>
       </c>
       <c r="B447" s="42" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C447" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D447" s="60"/>
     </row>
@@ -9760,10 +10295,10 @@
         <v>5103030</v>
       </c>
       <c r="B448" s="42" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C448" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D448" s="60"/>
     </row>
@@ -9772,10 +10307,10 @@
         <v>5104024</v>
       </c>
       <c r="B449" s="42" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C449" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D449" s="60"/>
     </row>
@@ -9784,10 +10319,10 @@
         <v>5104074</v>
       </c>
       <c r="B450" s="42" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C450" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D450" s="60"/>
     </row>
@@ -9796,10 +10331,10 @@
         <v>5104017</v>
       </c>
       <c r="B451" s="42" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C451" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D451" s="60"/>
     </row>
@@ -9808,10 +10343,10 @@
         <v>5103061</v>
       </c>
       <c r="B452" s="42" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C452" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D452" s="60"/>
     </row>
@@ -9820,10 +10355,10 @@
         <v>5103085</v>
       </c>
       <c r="B453" s="42" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C453" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D453" s="60"/>
     </row>
@@ -9832,10 +10367,10 @@
         <v>5103086</v>
       </c>
       <c r="B454" s="42" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C454" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D454" s="60"/>
     </row>
@@ -9844,10 +10379,10 @@
         <v>5103001</v>
       </c>
       <c r="B455" s="42" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C455" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D455" s="60"/>
     </row>
@@ -9856,10 +10391,10 @@
         <v>5103013</v>
       </c>
       <c r="B456" s="42" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C456" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D456" s="60"/>
     </row>
@@ -9868,10 +10403,10 @@
         <v>5103051</v>
       </c>
       <c r="B457" s="42" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C457" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D457" s="60"/>
     </row>
@@ -9880,10 +10415,10 @@
         <v>5103056</v>
       </c>
       <c r="B458" s="42" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C458" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D458" s="60"/>
     </row>
@@ -9892,10 +10427,10 @@
         <v>5103069</v>
       </c>
       <c r="B459" s="42" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C459" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D459" s="60"/>
     </row>
@@ -9904,10 +10439,10 @@
         <v>5103081</v>
       </c>
       <c r="B460" s="42" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C460" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D460" s="60"/>
     </row>
@@ -9916,10 +10451,10 @@
         <v>5103058</v>
       </c>
       <c r="B461" s="42" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C461" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D461" s="60"/>
     </row>
@@ -9928,10 +10463,10 @@
         <v>5103004</v>
       </c>
       <c r="B462" s="42" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C462" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D462" s="60"/>
     </row>
@@ -9940,10 +10475,10 @@
         <v>5101040</v>
       </c>
       <c r="B463" s="42" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C463" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D463" s="60"/>
     </row>
@@ -9952,10 +10487,10 @@
         <v>5101022</v>
       </c>
       <c r="B464" s="42" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C464" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D464" s="60"/>
     </row>
@@ -9964,10 +10499,10 @@
         <v>5101037</v>
       </c>
       <c r="B465" s="42" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C465" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D465" s="60"/>
     </row>
@@ -9976,10 +10511,10 @@
         <v>5104021</v>
       </c>
       <c r="B466" s="42" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C466" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D466" s="60"/>
     </row>
@@ -9988,10 +10523,10 @@
         <v>5104072</v>
       </c>
       <c r="B467" s="42" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C467" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D467" s="60"/>
     </row>
@@ -10000,10 +10535,10 @@
         <v>5104008</v>
       </c>
       <c r="B468" s="42" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C468" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D468" s="60"/>
     </row>
@@ -10012,10 +10547,10 @@
         <v>5101007</v>
       </c>
       <c r="B469" s="42" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C469" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D469" s="60"/>
     </row>
@@ -10024,10 +10559,10 @@
         <v>5101030</v>
       </c>
       <c r="B470" s="42" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C470" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D470" s="60"/>
     </row>
@@ -10036,10 +10571,10 @@
         <v>5101029</v>
       </c>
       <c r="B471" s="42" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="C471" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D471" s="60"/>
     </row>
@@ -10048,10 +10583,10 @@
         <v>5103062</v>
       </c>
       <c r="B472" s="42" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C472" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D472" s="60"/>
     </row>
@@ -10060,10 +10595,10 @@
         <v>5103084</v>
       </c>
       <c r="B473" s="42" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C473" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D473" s="60"/>
     </row>
@@ -10072,10 +10607,10 @@
         <v>5103071</v>
       </c>
       <c r="B474" s="42" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="C474" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D474" s="60"/>
     </row>
@@ -10084,10 +10619,10 @@
         <v>5101008</v>
       </c>
       <c r="B475" s="42" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C475" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D475" s="60"/>
     </row>
@@ -10096,10 +10631,10 @@
         <v>5106020</v>
       </c>
       <c r="B476" s="42" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C476" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D476" s="60"/>
     </row>
@@ -10108,10 +10643,10 @@
         <v>5104073</v>
       </c>
       <c r="B477" s="42" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C477" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D477" s="60"/>
     </row>
@@ -10120,10 +10655,10 @@
         <v>5104015</v>
       </c>
       <c r="B478" s="42" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C478" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D478" s="60"/>
     </row>
@@ -10132,10 +10667,10 @@
         <v>5106014</v>
       </c>
       <c r="B479" s="42" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C479" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D479" s="60"/>
     </row>
@@ -10144,10 +10679,10 @@
         <v>5106051</v>
       </c>
       <c r="B480" s="42" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C480" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D480" s="60"/>
     </row>
@@ -10156,10 +10691,10 @@
         <v>5106034</v>
       </c>
       <c r="B481" s="42" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C481" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D481" s="60"/>
     </row>
@@ -10168,10 +10703,10 @@
         <v>5106013</v>
       </c>
       <c r="B482" s="42" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="C482" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D482" s="60"/>
     </row>
@@ -10180,10 +10715,10 @@
         <v>5104084</v>
       </c>
       <c r="B483" s="42" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C483" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D483" s="60"/>
     </row>
@@ -10192,10 +10727,10 @@
         <v>5106015</v>
       </c>
       <c r="B484" s="42" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C484" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D484" s="60"/>
     </row>
@@ -10204,10 +10739,10 @@
         <v>5106035</v>
       </c>
       <c r="B485" s="42" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C485" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D485" s="60"/>
     </row>
@@ -10216,10 +10751,10 @@
         <v>5106041</v>
       </c>
       <c r="B486" s="42" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="C486" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D486" s="60"/>
     </row>
@@ -10228,10 +10763,10 @@
         <v>5106003</v>
       </c>
       <c r="B487" s="42" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C487" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D487" s="60"/>
     </row>
@@ -10240,10 +10775,10 @@
         <v>5106002</v>
       </c>
       <c r="B488" s="42" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C488" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D488" s="60"/>
     </row>
@@ -10252,10 +10787,10 @@
         <v>5106022</v>
       </c>
       <c r="B489" s="42" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="C489" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D489" s="60"/>
     </row>
@@ -10264,10 +10799,10 @@
         <v>5106010</v>
       </c>
       <c r="B490" s="42" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C490" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D490" s="60"/>
     </row>
@@ -10276,10 +10811,10 @@
         <v>5106028</v>
       </c>
       <c r="B491" s="42" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C491" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D491" s="60"/>
     </row>
@@ -10288,10 +10823,10 @@
         <v>5106011</v>
       </c>
       <c r="B492" s="42" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="C492" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D492" s="60"/>
     </row>
@@ -10300,10 +10835,10 @@
         <v>5106042</v>
       </c>
       <c r="B493" s="42" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C493" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D493" s="60"/>
     </row>
@@ -10312,10 +10847,10 @@
         <v>5106043</v>
       </c>
       <c r="B494" s="42" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C494" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D494" s="60"/>
     </row>
@@ -10324,10 +10859,10 @@
         <v>5106045</v>
       </c>
       <c r="B495" s="42" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C495" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D495" s="60"/>
     </row>
@@ -10336,10 +10871,10 @@
         <v>5106044</v>
       </c>
       <c r="B496" s="42" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="C496" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D496" s="60"/>
     </row>
@@ -10348,10 +10883,10 @@
         <v>5106046</v>
       </c>
       <c r="B497" s="42" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="C497" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D497" s="60"/>
     </row>
@@ -10360,10 +10895,10 @@
         <v>5103036</v>
       </c>
       <c r="B498" s="42" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C498" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D498" s="60"/>
     </row>
@@ -10372,10 +10907,10 @@
         <v>5103077</v>
       </c>
       <c r="B499" s="42" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C499" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D499" s="60"/>
     </row>
@@ -10384,10 +10919,10 @@
         <v>5103006</v>
       </c>
       <c r="B500" s="42" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C500" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D500" s="60"/>
     </row>
@@ -10396,10 +10931,10 @@
         <v>5103087</v>
       </c>
       <c r="B501" s="42" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="C501" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D501" s="60"/>
     </row>
@@ -10408,10 +10943,10 @@
         <v>5103082</v>
       </c>
       <c r="B502" s="42" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C502" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D502" s="60"/>
     </row>
@@ -10420,10 +10955,10 @@
         <v>5103083</v>
       </c>
       <c r="B503" s="42" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C503" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D503" s="60"/>
     </row>
@@ -10432,10 +10967,10 @@
         <v>5103088</v>
       </c>
       <c r="B504" s="42" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C504" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D504" s="60"/>
     </row>
@@ -10444,10 +10979,10 @@
         <v>5103063</v>
       </c>
       <c r="B505" s="42" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="C505" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D505" s="60"/>
     </row>
@@ -10456,10 +10991,10 @@
         <v>5103089</v>
       </c>
       <c r="B506" s="42" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C506" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D506" s="60"/>
     </row>
@@ -10468,10 +11003,10 @@
         <v>5103037</v>
       </c>
       <c r="B507" s="42" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C507" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D507" s="60"/>
     </row>
@@ -10480,10 +11015,10 @@
         <v>5104060</v>
       </c>
       <c r="B508" s="42" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C508" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D508" s="60"/>
     </row>
@@ -10492,10 +11027,10 @@
         <v>5103039</v>
       </c>
       <c r="B509" s="42" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C509" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D509" s="60"/>
     </row>
@@ -10504,10 +11039,10 @@
         <v>5104022</v>
       </c>
       <c r="B510" s="42" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="C510" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D510" s="60"/>
     </row>
@@ -10516,10 +11051,10 @@
         <v>5105004</v>
       </c>
       <c r="B511" s="42" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C511" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D511" s="60"/>
     </row>
@@ -10528,10 +11063,10 @@
         <v>5105005</v>
       </c>
       <c r="B512" s="42" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C512" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D512" s="60"/>
     </row>
@@ -10540,10 +11075,10 @@
         <v>5104006</v>
       </c>
       <c r="B513" s="42" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="C513" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D513" s="60"/>
     </row>
@@ -10552,10 +11087,10 @@
         <v>5104071</v>
       </c>
       <c r="B514" s="42" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C514" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D514" s="60"/>
     </row>
@@ -10564,10 +11099,10 @@
         <v>5104082</v>
       </c>
       <c r="B515" s="42" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C515" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D515" s="60"/>
     </row>
@@ -10576,10 +11111,10 @@
         <v>5103002</v>
       </c>
       <c r="B516" s="42" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C516" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D516" s="60"/>
     </row>
@@ -10588,10 +11123,10 @@
         <v>5103057</v>
       </c>
       <c r="B517" s="42" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="C517" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D517" s="60"/>
     </row>
@@ -10600,10 +11135,10 @@
         <v>5103011</v>
       </c>
       <c r="B518" s="42" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="C518" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D518" s="60"/>
     </row>
@@ -10612,10 +11147,10 @@
         <v>5103040</v>
       </c>
       <c r="B519" s="42" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C519" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D519" s="60"/>
     </row>
@@ -10624,10 +11159,10 @@
         <v>5103090</v>
       </c>
       <c r="B520" s="42" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C520" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D520" s="60"/>
     </row>
@@ -10636,10 +11171,10 @@
         <v>5103091</v>
       </c>
       <c r="B521" s="42" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C521" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D521" s="60"/>
     </row>
@@ -10648,10 +11183,10 @@
         <v>5104020</v>
       </c>
       <c r="B522" s="42" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="C522" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D522" s="60"/>
     </row>
@@ -10660,10 +11195,10 @@
         <v>5101023</v>
       </c>
       <c r="B523" s="42" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C523" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D523" s="60"/>
     </row>
@@ -10672,10 +11207,10 @@
         <v>5104065</v>
       </c>
       <c r="B524" s="42" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="C524" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D524" s="60"/>
     </row>
@@ -10684,10 +11219,10 @@
         <v>5104002</v>
       </c>
       <c r="B525" s="42" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C525" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D525" s="60"/>
     </row>
@@ -10696,10 +11231,10 @@
         <v>5104001</v>
       </c>
       <c r="B526" s="42" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="C526" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D526" s="60"/>
     </row>
@@ -10708,10 +11243,10 @@
         <v>5101003</v>
       </c>
       <c r="B527" s="42" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="C527" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D527" s="60"/>
     </row>
@@ -10720,10 +11255,10 @@
         <v>5103031</v>
       </c>
       <c r="B528" s="42" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="C528" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D528" s="60"/>
     </row>
@@ -10732,10 +11267,10 @@
         <v>5104023</v>
       </c>
       <c r="B529" s="42" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="C529" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D529" s="60"/>
     </row>
@@ -10744,10 +11279,10 @@
         <v>5103025</v>
       </c>
       <c r="B530" s="42" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="C530" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D530" s="60"/>
     </row>
@@ -10756,10 +11291,10 @@
         <v>5101043</v>
       </c>
       <c r="B531" s="42" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="C531" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D531" s="60"/>
     </row>
@@ -10768,10 +11303,10 @@
         <v>5103094</v>
       </c>
       <c r="B532" s="42" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="C532" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D532" s="60"/>
     </row>
@@ -10780,10 +11315,10 @@
         <v>5101044</v>
       </c>
       <c r="B533" s="42" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="C533" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D533" s="60"/>
     </row>
@@ -10792,10 +11327,10 @@
         <v>5101045</v>
       </c>
       <c r="B534" s="42" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="C534" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D534" s="60"/>
     </row>
@@ -10804,10 +11339,10 @@
         <v>5103026</v>
       </c>
       <c r="B535" s="42" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="C535" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D535" s="60"/>
     </row>
@@ -10816,10 +11351,10 @@
         <v>5106050</v>
       </c>
       <c r="B536" s="42" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="C536" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D536" s="60"/>
     </row>
@@ -10828,10 +11363,10 @@
         <v>5101041</v>
       </c>
       <c r="B537" s="42" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="C537" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D537" s="60"/>
     </row>
@@ -10840,10 +11375,10 @@
         <v>5101010</v>
       </c>
       <c r="B538" s="42" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="C538" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D538" s="60"/>
     </row>
@@ -10852,10 +11387,10 @@
         <v>5101020</v>
       </c>
       <c r="B539" s="42" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="C539" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D539" s="60"/>
     </row>
@@ -10864,10 +11399,10 @@
         <v>5101021</v>
       </c>
       <c r="B540" s="42" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="C540" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D540" s="60"/>
     </row>
@@ -10876,10 +11411,10 @@
         <v>5101018</v>
       </c>
       <c r="B541" s="42" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="C541" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D541" s="60"/>
     </row>
@@ -10888,10 +11423,10 @@
         <v>5101019</v>
       </c>
       <c r="B542" s="42" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="C542" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D542" s="60"/>
     </row>
@@ -10900,10 +11435,10 @@
         <v>5103024</v>
       </c>
       <c r="B543" s="42" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="C543" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D543" s="60"/>
     </row>
@@ -10912,10 +11447,10 @@
         <v>5101002</v>
       </c>
       <c r="B544" s="42" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="C544" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D544" s="60"/>
     </row>
@@ -10924,10 +11459,10 @@
         <v>5103073</v>
       </c>
       <c r="B545" s="42" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="C545" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D545" s="60"/>
     </row>
@@ -10936,10 +11471,10 @@
         <v>5103033</v>
       </c>
       <c r="B546" s="42" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="C546" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D546" s="60"/>
     </row>
@@ -10948,10 +11483,10 @@
         <v>5103038</v>
       </c>
       <c r="B547" s="42" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="C547" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D547" s="60"/>
     </row>
@@ -10960,10 +11495,10 @@
         <v>5103092</v>
       </c>
       <c r="B548" s="42" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C548" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D548" s="60"/>
     </row>
@@ -10972,10 +11507,10 @@
         <v>5101042</v>
       </c>
       <c r="B549" s="42" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C549" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D549" s="60"/>
     </row>
@@ -10984,10 +11519,10 @@
         <v>5104007</v>
       </c>
       <c r="B550" s="42" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C550" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D550" s="60"/>
     </row>
@@ -10996,10 +11531,10 @@
         <v>5101006</v>
       </c>
       <c r="B551" s="42" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C551" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D551" s="60"/>
     </row>
@@ -11008,10 +11543,10 @@
         <v>5103014</v>
       </c>
       <c r="B552" s="42" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C552" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D552" s="60"/>
     </row>
@@ -11020,10 +11555,10 @@
         <v>5103016</v>
       </c>
       <c r="B553" s="42" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C553" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D553" s="60"/>
     </row>
@@ -11032,10 +11567,10 @@
         <v>5103015</v>
       </c>
       <c r="B554" s="42" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C554" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D554" s="60"/>
     </row>
@@ -11044,10 +11579,10 @@
         <v>5103064</v>
       </c>
       <c r="B555" s="42" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="C555" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D555" s="60"/>
     </row>
@@ -11056,10 +11591,10 @@
         <v>5102007</v>
       </c>
       <c r="B556" s="42" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C556" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D556" s="60"/>
     </row>
@@ -11068,10 +11603,10 @@
         <v>5104014</v>
       </c>
       <c r="B557" s="42" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="C557" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D557" s="60"/>
     </row>
@@ -11080,10 +11615,10 @@
         <v>5101005</v>
       </c>
       <c r="B558" s="42" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C558" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D558" s="60"/>
     </row>
@@ -11092,10 +11627,10 @@
         <v>5101004</v>
       </c>
       <c r="B559" s="42" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="C559" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D559" s="60"/>
     </row>
@@ -11104,10 +11639,10 @@
         <v>5104003</v>
       </c>
       <c r="B560" s="42" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C560" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D560" s="60"/>
     </row>
@@ -11116,10 +11651,10 @@
         <v>5104012</v>
       </c>
       <c r="B561" s="42" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C561" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D561" s="60"/>
     </row>
@@ -11128,10 +11663,10 @@
         <v>5102006</v>
       </c>
       <c r="B562" s="42" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C562" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D562" s="60"/>
     </row>
@@ -11140,10 +11675,10 @@
         <v>5103080</v>
       </c>
       <c r="B563" s="42" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C563" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D563" s="60"/>
     </row>
@@ -11152,10 +11687,10 @@
         <v>5103093</v>
       </c>
       <c r="B564" s="42" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C564" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D564" s="60"/>
     </row>
@@ -11164,10 +11699,10 @@
         <v>5102011</v>
       </c>
       <c r="B565" s="42" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C565" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D565" s="60"/>
     </row>
@@ -11176,10 +11711,10 @@
         <v>5104009</v>
       </c>
       <c r="B566" s="42" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C566" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D566" s="60"/>
     </row>
@@ -11188,10 +11723,10 @@
         <v>5102002</v>
       </c>
       <c r="B567" s="42" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C567" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D567" s="60"/>
     </row>
@@ -11200,10 +11735,10 @@
         <v>5104005</v>
       </c>
       <c r="B568" s="42" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="C568" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D568" s="60"/>
     </row>
@@ -11212,10 +11747,10 @@
         <v>5104070</v>
       </c>
       <c r="B569" s="42" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C569" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D569" s="60"/>
     </row>
@@ -11224,10 +11759,10 @@
         <v>5104011</v>
       </c>
       <c r="B570" s="42" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C570" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D570" s="60"/>
     </row>
@@ -11236,10 +11771,10 @@
         <v>6043003</v>
       </c>
       <c r="B571" s="52" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C571" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D571" s="60"/>
     </row>
@@ -11248,13 +11783,13 @@
         <v>5107001</v>
       </c>
       <c r="B572" s="46" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="C572" s="47" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D572" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="573" spans="1:4" ht="12.75">
@@ -11262,13 +11797,13 @@
         <v>5107003</v>
       </c>
       <c r="B573" s="46" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="C573" s="47" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D573" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="574" spans="1:4" ht="12.75">
@@ -11276,13 +11811,13 @@
         <v>5107004</v>
       </c>
       <c r="B574" s="46" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="C574" s="47" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D574" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="575" spans="1:4" ht="12.75">
@@ -11290,13 +11825,13 @@
         <v>5107005</v>
       </c>
       <c r="B575" s="46" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C575" s="47" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D575" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="576" spans="1:4" ht="12.75">
@@ -11304,13 +11839,13 @@
         <v>5107007</v>
       </c>
       <c r="B576" s="46" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="C576" s="47" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D576" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="577" spans="1:4" ht="12.75">
@@ -11318,13 +11853,13 @@
         <v>5107008</v>
       </c>
       <c r="B577" s="46" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="C577" s="47" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D577" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="578" spans="1:4" ht="12.75">
@@ -11332,13 +11867,13 @@
         <v>5107009</v>
       </c>
       <c r="B578" s="46" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="C578" s="47" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D578" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="579" spans="1:4" ht="12.75">
@@ -11346,13 +11881,13 @@
         <v>5107010</v>
       </c>
       <c r="B579" s="46" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="C579" s="47" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D579" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="580" spans="1:4" ht="12.75">
@@ -11360,13 +11895,13 @@
         <v>5107013</v>
       </c>
       <c r="B580" s="46" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="C580" s="47" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D580" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="581" spans="1:4" ht="12.75">
@@ -11374,13 +11909,13 @@
         <v>5107014</v>
       </c>
       <c r="B581" s="46" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="C581" s="47" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D581" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="582" spans="1:4" ht="12.75">
@@ -11388,13 +11923,13 @@
         <v>5107016</v>
       </c>
       <c r="B582" s="46" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="C582" s="47" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D582" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="583" spans="1:4" ht="12.75">
@@ -11402,13 +11937,13 @@
         <v>5107017</v>
       </c>
       <c r="B583" s="46" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="C583" s="47" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D583" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="584" spans="1:4" ht="12.75">
@@ -11416,13 +11951,13 @@
         <v>5107018</v>
       </c>
       <c r="B584" s="46" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="C584" s="47" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D584" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="585" spans="1:4" ht="12.75">
@@ -11430,13 +11965,13 @@
         <v>5107019</v>
       </c>
       <c r="B585" s="46" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="C585" s="47" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D585" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="586" spans="1:4" ht="12.75">
@@ -11444,13 +11979,13 @@
         <v>5107020</v>
       </c>
       <c r="B586" s="46" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="C586" s="47" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D586" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="587" spans="1:4" ht="12.75">
@@ -11458,13 +11993,13 @@
         <v>5107021</v>
       </c>
       <c r="B587" s="46" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="C587" s="47" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D587" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="588" spans="1:4" ht="12.75">
@@ -11472,13 +12007,13 @@
         <v>5107022</v>
       </c>
       <c r="B588" s="46" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="C588" s="47" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D588" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="589" spans="1:4" ht="12.75">
@@ -11486,13 +12021,13 @@
         <v>5107023</v>
       </c>
       <c r="B589" s="46" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="C589" s="47" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D589" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="590" spans="1:4" ht="12.75">
@@ -11500,13 +12035,13 @@
         <v>5107024</v>
       </c>
       <c r="B590" s="46" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="C590" s="47" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D590" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="591" spans="1:4" ht="12.75">
@@ -11514,13 +12049,13 @@
         <v>5107025</v>
       </c>
       <c r="B591" s="46" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="C591" s="47" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D591" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="592" spans="1:4" ht="12.75">
@@ -11528,13 +12063,13 @@
         <v>5107026</v>
       </c>
       <c r="B592" s="46" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="C592" s="47" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D592" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="593" spans="1:4" ht="12.75">
@@ -11542,13 +12077,13 @@
         <v>5107027</v>
       </c>
       <c r="B593" s="46" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="C593" s="47" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D593" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="594" spans="1:4" ht="12.75">
@@ -11556,13 +12091,13 @@
         <v>5107028</v>
       </c>
       <c r="B594" s="46" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="C594" s="47" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D594" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="595" spans="1:4" ht="12.75">
@@ -11570,13 +12105,13 @@
         <v>5107029</v>
       </c>
       <c r="B595" s="46" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="C595" s="47" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D595" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="596" spans="1:4" ht="12.75">
@@ -11584,13 +12119,13 @@
         <v>5107030</v>
       </c>
       <c r="B596" s="46" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="C596" s="47" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D596" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="597" spans="1:4" ht="12.75">
@@ -11598,13 +12133,13 @@
         <v>5107031</v>
       </c>
       <c r="B597" s="46" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="C597" s="47" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D597" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="598" spans="1:4" ht="12.75">
@@ -11612,13 +12147,13 @@
         <v>5107032</v>
       </c>
       <c r="B598" s="46" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="C598" s="47" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D598" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="599" spans="1:4" ht="12.75">
@@ -11626,13 +12161,13 @@
         <v>5107033</v>
       </c>
       <c r="B599" s="46" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="C599" s="47" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D599" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="600" spans="1:4" ht="12.75">
@@ -11640,13 +12175,13 @@
         <v>5107034</v>
       </c>
       <c r="B600" s="46" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="C600" s="47" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D600" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="601" spans="1:4" ht="12.75">
@@ -11654,13 +12189,13 @@
         <v>5107035</v>
       </c>
       <c r="B601" s="46" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="C601" s="47" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D601" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="602" spans="1:4" ht="12.75">
@@ -11668,13 +12203,13 @@
         <v>5107036</v>
       </c>
       <c r="B602" s="46" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="C602" s="47" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D602" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="603" spans="1:4" ht="12.75">
@@ -11682,13 +12217,13 @@
         <v>5107037</v>
       </c>
       <c r="B603" s="46" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="C603" s="47" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D603" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="604" spans="1:4" ht="12.75">
@@ -11696,13 +12231,13 @@
         <v>5107038</v>
       </c>
       <c r="B604" s="46" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="C604" s="47" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D604" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="605" spans="1:4" ht="12.75">
@@ -11710,13 +12245,13 @@
         <v>5107039</v>
       </c>
       <c r="B605" s="46" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="C605" s="47" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D605" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="606" spans="1:4" ht="12.75">
@@ -11724,13 +12259,13 @@
         <v>5107040</v>
       </c>
       <c r="B606" s="46" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="C606" s="47" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D606" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="607" spans="1:4" ht="12.75">
@@ -11738,10 +12273,10 @@
         <v>5108003</v>
       </c>
       <c r="B607" s="42" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="C607" s="43" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D607" s="44"/>
     </row>
@@ -11750,10 +12285,10 @@
         <v>5108004</v>
       </c>
       <c r="B608" s="42" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="C608" s="43" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D608" s="44"/>
     </row>
@@ -11762,10 +12297,10 @@
         <v>5108009</v>
       </c>
       <c r="B609" s="42" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C609" s="43" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D609" s="44"/>
     </row>
@@ -11774,10 +12309,10 @@
         <v>5108015</v>
       </c>
       <c r="B610" s="42" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="C610" s="43" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D610" s="44"/>
     </row>
@@ -11786,10 +12321,10 @@
         <v>5108016</v>
       </c>
       <c r="B611" s="42" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="C611" s="43" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D611" s="44"/>
     </row>
@@ -11798,13 +12333,13 @@
         <v>5109003</v>
       </c>
       <c r="B612" s="46" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="C612" s="47" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="D612" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="613" spans="1:4" ht="12.75">
@@ -11812,13 +12347,13 @@
         <v>5109004</v>
       </c>
       <c r="B613" s="46" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="C613" s="47" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="D613" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="614" spans="1:4" ht="12.75">
@@ -11826,13 +12361,13 @@
         <v>5109005</v>
       </c>
       <c r="B614" s="46" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="C614" s="47" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="D614" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="615" spans="1:4" ht="12.75">
@@ -11840,13 +12375,13 @@
         <v>5109007</v>
       </c>
       <c r="B615" s="46" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="C615" s="47" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="D615" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="616" spans="1:4" ht="12.75">
@@ -11854,13 +12389,13 @@
         <v>5109008</v>
       </c>
       <c r="B616" s="46" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="C616" s="47" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="D616" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="617" spans="1:4" ht="12.75">
@@ -11868,13 +12403,13 @@
         <v>5109009</v>
       </c>
       <c r="B617" s="46" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="C617" s="47" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="D617" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="618" spans="1:4" ht="12.75">
@@ -11882,13 +12417,13 @@
         <v>5109010</v>
       </c>
       <c r="B618" s="46" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C618" s="47" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="D618" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="619" spans="1:4" ht="12.75">
@@ -11896,13 +12431,13 @@
         <v>5109013</v>
       </c>
       <c r="B619" s="46" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="C619" s="47" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="D619" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="620" spans="1:4" ht="12.75">
@@ -11910,13 +12445,13 @@
         <v>5109014</v>
       </c>
       <c r="B620" s="46" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="C620" s="47" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="D620" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="621" spans="1:4" ht="12.75">
@@ -11924,13 +12459,13 @@
         <v>5109015</v>
       </c>
       <c r="B621" s="46" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="C621" s="47" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="D621" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="622" spans="1:4" ht="12.75">
@@ -11938,13 +12473,13 @@
         <v>5109016</v>
       </c>
       <c r="B622" s="46" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="C622" s="47" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="D622" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="623" spans="1:4" ht="12.75">
@@ -11952,13 +12487,13 @@
         <v>5109017</v>
       </c>
       <c r="B623" s="46" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C623" s="47" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="D623" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="624" spans="1:4" ht="12.75">
@@ -11966,13 +12501,13 @@
         <v>5109018</v>
       </c>
       <c r="B624" s="46" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="C624" s="47" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="D624" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="625" spans="1:4" ht="12.75">
@@ -11980,13 +12515,13 @@
         <v>5109021</v>
       </c>
       <c r="B625" s="46" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="C625" s="47" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="D625" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="626" spans="1:4" ht="12.75">
@@ -11994,13 +12529,13 @@
         <v>5109023</v>
       </c>
       <c r="B626" s="46" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="C626" s="47" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="D626" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="627" spans="1:4" ht="12.75">
@@ -12008,13 +12543,13 @@
         <v>5109024</v>
       </c>
       <c r="B627" s="46" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="C627" s="47" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="D627" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/Seguimiento Fundación Reconocer (1) (1).xlsx
+++ b/Seguimiento Fundación Reconocer (1) (1).xlsx
@@ -2365,7 +2365,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$$]#,##0"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="170" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -2776,10 +2776,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2795,10 +2791,14 @@
     <xf numFmtId="14" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3040,7 +3040,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3069,14 +3069,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="26.25" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3425,7 +3425,7 @@
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="69" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -3514,7 +3514,7 @@
       <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="70" t="s">
         <v>762</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -3603,7 +3603,7 @@
     </row>
     <row r="6" spans="1:44" ht="12.75">
       <c r="A6" s="13"/>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="68" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -3792,7 +3792,7 @@
       <c r="D8" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="62">
         <v>5454456</v>
       </c>
       <c r="F8" s="17" t="e">
@@ -3874,7 +3874,7 @@
       <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="70"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="15" t="s">
         <v>61</v>
       </c>
@@ -3961,7 +3961,7 @@
       <c r="A10" s="13">
         <v>8</v>
       </c>
-      <c r="B10" s="69"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="15" t="s">
         <v>62</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>42</v>
       </c>
       <c r="C11" s="15"/>
-      <c r="D11" s="73">
+      <c r="D11" s="71">
         <v>53842690</v>
       </c>
       <c r="E11" s="16">
@@ -4323,8 +4323,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:44" ht="409.5">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:44" ht="63.75">
+      <c r="A1" s="65" t="s">
         <v>718</v>
       </c>
       <c r="B1" t="s">
@@ -4336,61 +4336,61 @@
       <c r="D1" t="s">
         <v>721</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="66" t="s">
         <v>722</v>
       </c>
       <c r="F1" t="s">
         <v>723</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="66" t="s">
         <v>724</v>
       </c>
       <c r="H1" t="s">
         <v>725</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="66" t="s">
         <v>726</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="J1" s="66" t="s">
         <v>727</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="66" t="s">
         <v>728</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="L1" s="66" t="s">
         <v>729</v>
       </c>
-      <c r="M1" s="68" t="s">
+      <c r="M1" s="66" t="s">
         <v>730</v>
       </c>
-      <c r="N1" s="68" t="s">
+      <c r="N1" s="66" t="s">
         <v>731</v>
       </c>
-      <c r="O1" s="68" t="s">
+      <c r="O1" s="66" t="s">
         <v>732</v>
       </c>
-      <c r="P1" s="68" t="s">
+      <c r="P1" s="66" t="s">
         <v>733</v>
       </c>
       <c r="Q1" t="s">
         <v>734</v>
       </c>
-      <c r="R1" s="68" t="s">
+      <c r="R1" s="66" t="s">
         <v>735</v>
       </c>
       <c r="S1" t="s">
         <v>736</v>
       </c>
-      <c r="T1" s="68" t="s">
+      <c r="T1" s="66" t="s">
         <v>737</v>
       </c>
-      <c r="U1" s="68" t="s">
+      <c r="U1" s="66" t="s">
         <v>738</v>
       </c>
       <c r="V1" t="s">
         <v>739</v>
       </c>
-      <c r="W1" s="68" t="s">
+      <c r="W1" s="66" t="s">
         <v>740</v>
       </c>
       <c r="X1" t="s">
@@ -4399,7 +4399,7 @@
       <c r="Y1" t="s">
         <v>742</v>
       </c>
-      <c r="Z1" s="68" t="s">
+      <c r="Z1" s="66" t="s">
         <v>743</v>
       </c>
       <c r="AA1" t="s">
@@ -4408,7 +4408,7 @@
       <c r="AB1" t="s">
         <v>745</v>
       </c>
-      <c r="AC1" s="68" t="s">
+      <c r="AC1" s="66" t="s">
         <v>746</v>
       </c>
       <c r="AD1" t="s">
@@ -4417,7 +4417,7 @@
       <c r="AE1" t="s">
         <v>748</v>
       </c>
-      <c r="AF1" s="68" t="s">
+      <c r="AF1" s="66" t="s">
         <v>749</v>
       </c>
       <c r="AG1" t="s">
@@ -4426,7 +4426,7 @@
       <c r="AH1" t="s">
         <v>751</v>
       </c>
-      <c r="AI1" s="68" t="s">
+      <c r="AI1" s="66" t="s">
         <v>752</v>
       </c>
       <c r="AJ1" t="s">
@@ -4435,7 +4435,7 @@
       <c r="AK1" t="s">
         <v>754</v>
       </c>
-      <c r="AL1" s="68" t="s">
+      <c r="AL1" s="66" t="s">
         <v>755</v>
       </c>
       <c r="AM1" t="s">
@@ -4444,7 +4444,7 @@
       <c r="AN1" t="s">
         <v>757</v>
       </c>
-      <c r="AO1" s="68" t="s">
+      <c r="AO1" s="66" t="s">
         <v>758</v>
       </c>
       <c r="AP1" t="s">
@@ -4474,7 +4474,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:1" ht="25.5">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="65" t="s">
         <v>718</v>
       </c>
     </row>
@@ -4494,7 +4494,7 @@
       </c>
     </row>
     <row r="5" spans="1:1" ht="38.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="66" t="s">
         <v>722</v>
       </c>
     </row>
@@ -4504,7 +4504,7 @@
       </c>
     </row>
     <row r="7" spans="1:1" ht="51">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="66" t="s">
         <v>724</v>
       </c>
     </row>
@@ -4514,42 +4514,42 @@
       </c>
     </row>
     <row r="9" spans="1:1" ht="38.25">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="66" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="63.75">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="66" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="63.75">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="66" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="51">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="66" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="63.75">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="66" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="63.75">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="66" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="51">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="66" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="63.75">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="66" t="s">
         <v>733</v>
       </c>
     </row>
@@ -4559,7 +4559,7 @@
       </c>
     </row>
     <row r="18" spans="1:1" ht="38.25">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="66" t="s">
         <v>735</v>
       </c>
     </row>
@@ -4569,12 +4569,12 @@
       </c>
     </row>
     <row r="20" spans="1:1" ht="38.25">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="66" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="63.75">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="66" t="s">
         <v>738</v>
       </c>
     </row>
@@ -4584,7 +4584,7 @@
       </c>
     </row>
     <row r="23" spans="1:1" ht="38.25">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="66" t="s">
         <v>740</v>
       </c>
     </row>
@@ -4599,7 +4599,7 @@
       </c>
     </row>
     <row r="26" spans="1:1" ht="38.25">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="66" t="s">
         <v>743</v>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
     </row>
     <row r="29" spans="1:1" ht="38.25">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="66" t="s">
         <v>746</v>
       </c>
     </row>
@@ -4629,7 +4629,7 @@
       </c>
     </row>
     <row r="32" spans="1:1" ht="38.25">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="66" t="s">
         <v>749</v>
       </c>
     </row>
@@ -4644,7 +4644,7 @@
       </c>
     </row>
     <row r="35" spans="1:1" ht="38.25">
-      <c r="A35" s="68" t="s">
+      <c r="A35" s="66" t="s">
         <v>752</v>
       </c>
     </row>
@@ -4659,7 +4659,7 @@
       </c>
     </row>
     <row r="38" spans="1:1" ht="38.25">
-      <c r="A38" s="68" t="s">
+      <c r="A38" s="66" t="s">
         <v>755</v>
       </c>
     </row>
@@ -4674,7 +4674,7 @@
       </c>
     </row>
     <row r="41" spans="1:1" ht="38.25">
-      <c r="A41" s="68" t="s">
+      <c r="A41" s="66" t="s">
         <v>758</v>
       </c>
     </row>
